--- a/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/CALCIO F619 M620.xlsx
+++ b/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/CALCIO F619 M620.xlsx
@@ -5,37 +5,39 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 3 Lote M620-F619\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\Produccion\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 3 Lote M620-F619\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="638" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="638" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="54" r:id="rId1"/>
     <sheet name="45" sheetId="53" r:id="rId2"/>
     <sheet name="49" sheetId="55" r:id="rId3"/>
     <sheet name="53" sheetId="57" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="56" r:id="rId5"/>
-    <sheet name="F619-M620" sheetId="1" r:id="rId6"/>
-    <sheet name="F-FORM" sheetId="20" r:id="rId7"/>
-    <sheet name="M-FORM" sheetId="38" r:id="rId8"/>
+    <sheet name="56" sheetId="58" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="56" r:id="rId6"/>
+    <sheet name="F619-M620" sheetId="1" r:id="rId7"/>
+    <sheet name="F-FORM" sheetId="20" r:id="rId8"/>
+    <sheet name="M-FORM" sheetId="38" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'44'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'45'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'49'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'53'!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'56'!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="64">
   <si>
     <t>CORRAL</t>
   </si>
@@ -224,6 +226,9 @@
   </si>
   <si>
     <t>F619-M620 MOD3  SEM 53</t>
+  </si>
+  <si>
+    <t>F619-M620 MOD3  SEM 57</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1220,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,6 +1393,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,23 +1570,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,231 +1675,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="60" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1698,199 +1709,203 @@
       <sheetName val="Incrementos M "/>
       <sheetName val="Retiros"/>
       <sheetName val="Consolidado Mort"/>
+      <sheetName val="Caracterizacion LF"/>
+      <sheetName val="Caracterizacion LM"/>
       <sheetName val="Hoja1"/>
       <sheetName val="Mortalidad"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="371">
           <cell r="E371">
-            <v>579</v>
+            <v>555</v>
           </cell>
           <cell r="F371">
-            <v>49</v>
+            <v>39</v>
           </cell>
           <cell r="Q371">
-            <v>579</v>
+            <v>562</v>
           </cell>
           <cell r="R371">
-            <v>50</v>
+            <v>38</v>
           </cell>
           <cell r="AC371">
-            <v>576</v>
+            <v>545</v>
           </cell>
           <cell r="AD371">
-            <v>50</v>
+            <v>38</v>
           </cell>
           <cell r="AO371">
-            <v>74</v>
+            <v>115</v>
           </cell>
           <cell r="AP371">
             <v>8</v>
           </cell>
           <cell r="BA371">
-            <v>575</v>
+            <v>546</v>
           </cell>
           <cell r="BB371">
-            <v>50</v>
+            <v>38</v>
           </cell>
           <cell r="BM371">
-            <v>578</v>
+            <v>551</v>
           </cell>
           <cell r="BN371">
-            <v>49</v>
+            <v>38</v>
           </cell>
           <cell r="BY371">
-            <v>579</v>
+            <v>556</v>
           </cell>
           <cell r="BZ371">
-            <v>49</v>
+            <v>38</v>
           </cell>
           <cell r="CK371">
+            <v>537</v>
+          </cell>
+          <cell r="CL371">
+            <v>38</v>
+          </cell>
+          <cell r="CW371">
+            <v>547</v>
+          </cell>
+          <cell r="CX371">
+            <v>38</v>
+          </cell>
+          <cell r="DI371">
+            <v>561</v>
+          </cell>
+          <cell r="DJ371">
+            <v>39</v>
+          </cell>
+          <cell r="DU371">
+            <v>97</v>
+          </cell>
+          <cell r="DV371">
+            <v>8</v>
+          </cell>
+          <cell r="EG371">
+            <v>568</v>
+          </cell>
+          <cell r="EH371">
+            <v>40</v>
+          </cell>
+          <cell r="ES371">
             <v>556</v>
           </cell>
-          <cell r="CL371">
-            <v>43</v>
+          <cell r="ET371">
+            <v>39</v>
           </cell>
-          <cell r="CW371">
+          <cell r="FE371">
+            <v>545</v>
+          </cell>
+          <cell r="FF371">
+            <v>38</v>
+          </cell>
+          <cell r="FQ371">
+            <v>539</v>
+          </cell>
+          <cell r="FR371">
+            <v>40</v>
+          </cell>
+          <cell r="GC371">
+            <v>547</v>
+          </cell>
+          <cell r="GD371">
+            <v>41</v>
+          </cell>
+          <cell r="GO371">
+            <v>571</v>
+          </cell>
+          <cell r="GP371">
+            <v>42</v>
+          </cell>
+          <cell r="HA371">
+            <v>104</v>
+          </cell>
+          <cell r="HB371">
+            <v>7</v>
+          </cell>
+          <cell r="HM371">
+            <v>574</v>
+          </cell>
+          <cell r="HN371">
+            <v>42</v>
+          </cell>
+          <cell r="HY371">
             <v>559</v>
           </cell>
-          <cell r="CX371">
-            <v>44</v>
-          </cell>
-          <cell r="DI371">
-            <v>575</v>
-          </cell>
-          <cell r="DJ371">
-            <v>45</v>
-          </cell>
-          <cell r="DU371">
-            <v>123</v>
-          </cell>
-          <cell r="DV371">
-            <v>11</v>
-          </cell>
-          <cell r="EG371">
-            <v>583</v>
-          </cell>
-          <cell r="EH371">
-            <v>45</v>
-          </cell>
-          <cell r="ES371">
-            <v>570</v>
-          </cell>
-          <cell r="ET371">
-            <v>44</v>
-          </cell>
-          <cell r="FE371">
-            <v>559</v>
-          </cell>
-          <cell r="FF371">
-            <v>44</v>
-          </cell>
-          <cell r="FQ371">
-            <v>567</v>
-          </cell>
-          <cell r="FR371">
-            <v>48</v>
-          </cell>
-          <cell r="GC371">
-            <v>573</v>
-          </cell>
-          <cell r="GD371">
-            <v>48</v>
-          </cell>
-          <cell r="GO371">
-            <v>588</v>
-          </cell>
-          <cell r="GP371">
-            <v>49</v>
-          </cell>
-          <cell r="HA371">
-            <v>79</v>
-          </cell>
-          <cell r="HB371">
-            <v>8</v>
-          </cell>
-          <cell r="HM371">
-            <v>591</v>
-          </cell>
-          <cell r="HN371">
-            <v>50</v>
-          </cell>
-          <cell r="HY371">
-            <v>585</v>
-          </cell>
           <cell r="HZ371">
-            <v>49</v>
+            <v>41</v>
           </cell>
           <cell r="IK371">
-            <v>583</v>
+            <v>572</v>
           </cell>
           <cell r="IL371">
-            <v>48</v>
+            <v>41</v>
           </cell>
           <cell r="JI371">
-            <v>10631</v>
+            <v>10307</v>
           </cell>
           <cell r="JJ371">
-            <v>881</v>
+            <v>731</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="371">
           <cell r="E371">
-            <v>464</v>
+            <v>450</v>
           </cell>
           <cell r="F371">
-            <v>39</v>
+            <v>33</v>
           </cell>
           <cell r="Q371">
-            <v>496</v>
+            <v>485</v>
           </cell>
           <cell r="R371">
-            <v>41</v>
+            <v>36</v>
           </cell>
           <cell r="AC371">
-            <v>126</v>
+            <v>100</v>
           </cell>
           <cell r="AD371">
             <v>8</v>
           </cell>
           <cell r="AO371">
-            <v>491</v>
+            <v>473</v>
           </cell>
           <cell r="AP371">
-            <v>42</v>
+            <v>34</v>
           </cell>
           <cell r="BA371">
-            <v>492</v>
+            <v>471</v>
           </cell>
           <cell r="BB371">
-            <v>42</v>
+            <v>35</v>
           </cell>
           <cell r="BM371">
-            <v>493</v>
+            <v>480</v>
           </cell>
           <cell r="BN371">
-            <v>43</v>
+            <v>35</v>
           </cell>
           <cell r="HM371">
-            <v>2562</v>
+            <v>2459</v>
           </cell>
           <cell r="HN371">
-            <v>215</v>
+            <v>181</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2200,19 +2215,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -2220,18 +2235,18 @@
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -2243,10 +2258,10 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2272,8 +2287,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2312,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="67">
         <v>1</v>
       </c>
@@ -2324,7 +2339,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="67">
         <v>2</v>
       </c>
@@ -2351,7 +2366,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="67">
         <v>3</v>
       </c>
@@ -2378,7 +2393,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="67">
         <v>4</v>
       </c>
@@ -2405,7 +2420,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="67">
         <v>5</v>
       </c>
@@ -2432,7 +2447,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="67">
         <v>6</v>
       </c>
@@ -2459,7 +2474,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
@@ -2470,7 +2485,7 @@
       <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -2481,7 +2496,7 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="67" t="s">
         <v>7</v>
       </c>
@@ -2526,10 +2541,10 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="18" t="str">
@@ -2562,8 +2577,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
@@ -2587,7 +2602,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="52">
         <v>1</v>
       </c>
@@ -2614,7 +2629,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="52">
         <v>2</v>
       </c>
@@ -2641,7 +2656,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="52">
         <v>3</v>
       </c>
@@ -2668,7 +2683,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="52">
         <v>4</v>
       </c>
@@ -2695,7 +2710,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="52">
         <v>5</v>
       </c>
@@ -2722,7 +2737,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="52">
         <v>6</v>
       </c>
@@ -2749,7 +2764,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="78"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="52">
         <v>7</v>
       </c>
@@ -2776,7 +2791,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="52" t="s">
         <v>7</v>
       </c>
@@ -2825,10 +2840,10 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="18">
@@ -2861,8 +2876,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2901,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="52">
         <v>1</v>
       </c>
@@ -2913,7 +2928,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="52">
         <v>2</v>
       </c>
@@ -2940,7 +2955,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="52">
         <v>3</v>
       </c>
@@ -2967,7 +2982,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="52">
         <v>4</v>
       </c>
@@ -2994,7 +3009,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="78"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="52">
         <v>5</v>
       </c>
@@ -3021,7 +3036,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="52">
         <v>6</v>
       </c>
@@ -3048,7 +3063,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="52">
         <v>7</v>
       </c>
@@ -3075,7 +3090,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>7</v>
       </c>
@@ -3123,10 +3138,10 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="18" t="str">
@@ -3159,8 +3174,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
@@ -3184,7 +3199,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="67">
         <v>1</v>
       </c>
@@ -3211,7 +3226,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="67">
         <v>2</v>
       </c>
@@ -3238,7 +3253,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="67">
         <v>3</v>
       </c>
@@ -3265,7 +3280,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="67">
         <v>4</v>
       </c>
@@ -3292,7 +3307,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="67">
         <v>5</v>
       </c>
@@ -3319,7 +3334,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="67">
         <v>6</v>
       </c>
@@ -3346,7 +3361,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="67">
         <v>7</v>
       </c>
@@ -3373,7 +3388,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="67" t="s">
         <v>7</v>
       </c>
@@ -3422,31 +3437,31 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="62">
         <f>(K48+K37+K26+K15)/25000</f>
         <v>17.5336</v>
@@ -3475,17 +3490,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B50:J51"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B50:J51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3512,19 +3527,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -3532,18 +3547,18 @@
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -3555,10 +3570,10 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -3584,8 +3599,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
@@ -3609,7 +3624,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="59">
         <v>1</v>
       </c>
@@ -3636,7 +3651,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="59">
         <v>2</v>
       </c>
@@ -3663,7 +3678,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="59">
         <v>3</v>
       </c>
@@ -3690,7 +3705,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="59">
         <v>4</v>
       </c>
@@ -3717,7 +3732,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="59">
         <v>5</v>
       </c>
@@ -3744,7 +3759,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="59">
         <v>6</v>
       </c>
@@ -3771,7 +3786,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -3782,7 +3797,7 @@
       <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -3793,7 +3808,7 @@
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="59" t="s">
         <v>7</v>
       </c>
@@ -3838,10 +3853,10 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="18" t="str">
@@ -3874,8 +3889,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
@@ -3899,7 +3914,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="52">
         <v>1</v>
       </c>
@@ -3926,7 +3941,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="52">
         <v>2</v>
       </c>
@@ -3953,7 +3968,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="52">
         <v>3</v>
       </c>
@@ -3980,7 +3995,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="52">
         <v>4</v>
       </c>
@@ -4007,7 +4022,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="52">
         <v>5</v>
       </c>
@@ -4034,7 +4049,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="52">
         <v>6</v>
       </c>
@@ -4061,7 +4076,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="78"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="52">
         <v>7</v>
       </c>
@@ -4088,7 +4103,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="52" t="s">
         <v>7</v>
       </c>
@@ -4137,10 +4152,10 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="18">
@@ -4173,8 +4188,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
@@ -4198,7 +4213,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="52">
         <v>1</v>
       </c>
@@ -4225,7 +4240,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="52">
         <v>2</v>
       </c>
@@ -4252,7 +4267,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="52">
         <v>3</v>
       </c>
@@ -4279,7 +4294,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="52">
         <v>4</v>
       </c>
@@ -4306,7 +4321,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="78"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="52">
         <v>5</v>
       </c>
@@ -4333,7 +4348,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="52">
         <v>6</v>
       </c>
@@ -4360,7 +4375,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="52">
         <v>7</v>
       </c>
@@ -4387,7 +4402,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>7</v>
       </c>
@@ -4435,10 +4450,10 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="18" t="str">
@@ -4471,8 +4486,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
@@ -4496,7 +4511,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="59">
         <v>1</v>
       </c>
@@ -4523,7 +4538,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="59">
         <v>2</v>
       </c>
@@ -4550,7 +4565,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="59">
         <v>3</v>
       </c>
@@ -4577,7 +4592,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="59">
         <v>4</v>
       </c>
@@ -4604,7 +4619,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="59">
         <v>5</v>
       </c>
@@ -4631,7 +4646,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="59">
         <v>6</v>
       </c>
@@ -4658,7 +4673,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="59">
         <v>7</v>
       </c>
@@ -4685,7 +4700,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="59" t="s">
         <v>7</v>
       </c>
@@ -4734,31 +4749,31 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="62">
         <f>(K48+K37+K26+K15)/25000</f>
         <v>17.332000000000001</v>
@@ -4787,17 +4802,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B50:J51"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B50:J51"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4824,19 +4839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -4844,18 +4859,18 @@
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -4867,10 +4882,10 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -4896,8 +4911,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
@@ -4921,7 +4936,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="68">
         <v>1</v>
       </c>
@@ -4948,7 +4963,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="68">
         <v>2</v>
       </c>
@@ -4975,7 +4990,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="68">
         <v>3</v>
       </c>
@@ -5002,7 +5017,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="68">
         <v>4</v>
       </c>
@@ -5029,7 +5044,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="68">
         <v>5</v>
       </c>
@@ -5056,7 +5071,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="68">
         <v>6</v>
       </c>
@@ -5083,7 +5098,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -5094,7 +5109,7 @@
       <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -5105,7 +5120,7 @@
       <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="68" t="s">
         <v>7</v>
       </c>
@@ -5142,10 +5157,10 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -5171,8 +5186,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
@@ -5196,7 +5211,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="52">
         <v>1</v>
       </c>
@@ -5223,7 +5238,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="52">
         <v>2</v>
       </c>
@@ -5250,7 +5265,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="52">
         <v>3</v>
       </c>
@@ -5277,7 +5292,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="52">
         <v>4</v>
       </c>
@@ -5304,7 +5319,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="52">
         <v>5</v>
       </c>
@@ -5331,7 +5346,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="52">
         <v>6</v>
       </c>
@@ -5358,7 +5373,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="78"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="52">
         <v>7</v>
       </c>
@@ -5385,7 +5400,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="52" t="s">
         <v>7</v>
       </c>
@@ -5426,10 +5441,10 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="18">
@@ -5455,8 +5470,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5495,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="52">
         <v>1</v>
       </c>
@@ -5507,7 +5522,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="52">
         <v>2</v>
       </c>
@@ -5534,7 +5549,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="52">
         <v>3</v>
       </c>
@@ -5561,7 +5576,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="52">
         <v>4</v>
       </c>
@@ -5588,7 +5603,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="78"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="52">
         <v>5</v>
       </c>
@@ -5615,7 +5630,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="52">
         <v>6</v>
       </c>
@@ -5642,7 +5657,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="52">
         <v>7</v>
       </c>
@@ -5669,7 +5684,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>7</v>
       </c>
@@ -5709,10 +5724,10 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -5738,8 +5753,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
@@ -5763,7 +5778,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="68">
         <v>1</v>
       </c>
@@ -5790,7 +5805,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="68">
         <v>2</v>
       </c>
@@ -5817,7 +5832,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="68">
         <v>3</v>
       </c>
@@ -5844,7 +5859,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="68">
         <v>4</v>
       </c>
@@ -5871,7 +5886,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="68">
         <v>5</v>
       </c>
@@ -5898,7 +5913,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="68">
         <v>6</v>
       </c>
@@ -5925,7 +5940,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="68">
         <v>7</v>
       </c>
@@ -5952,7 +5967,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="68" t="s">
         <v>7</v>
       </c>
@@ -5993,33 +6008,1291 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="62">
         <v>17.007200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="43"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B50:J51"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:C18"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="14.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+    </row>
+    <row r="2" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="129"/>
+      <c r="C7" s="71">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="E7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="F7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="G7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="H7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="I7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="J7" s="71">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="129"/>
+      <c r="C8" s="71">
+        <v>2</v>
+      </c>
+      <c r="D8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="E8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="F8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="G8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="H8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="I8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="J8" s="71">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="129"/>
+      <c r="C9" s="71">
+        <v>3</v>
+      </c>
+      <c r="D9" s="71">
+        <v>540</v>
+      </c>
+      <c r="E9" s="71">
+        <v>540</v>
+      </c>
+      <c r="F9" s="71">
+        <v>540</v>
+      </c>
+      <c r="G9" s="71">
+        <v>540</v>
+      </c>
+      <c r="H9" s="71">
+        <v>540</v>
+      </c>
+      <c r="I9" s="71">
+        <v>540</v>
+      </c>
+      <c r="J9" s="71">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="129"/>
+      <c r="C10" s="71">
+        <v>4</v>
+      </c>
+      <c r="D10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="E10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="F10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="G10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="H10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="I10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="J10" s="71">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="129"/>
+      <c r="C11" s="71">
+        <v>5</v>
+      </c>
+      <c r="D11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="E11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="F11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="G11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="H11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="I11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="J11" s="71">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="129"/>
+      <c r="C12" s="71">
+        <v>6</v>
+      </c>
+      <c r="D12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="E12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="F12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="G12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="H12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="I12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="J12" s="71">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="129"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="129"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="129"/>
+      <c r="C15" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="E15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="F15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="G15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="H15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="I15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="J15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="K15" s="61">
+        <v>92820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="121"/>
+      <c r="C19" s="52">
+        <v>1</v>
+      </c>
+      <c r="D19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="E19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="F19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="G19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="H19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="I19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="J19" s="71">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="121"/>
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="E20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="F20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="G20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="H20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="I20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="J20" s="71">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="121"/>
+      <c r="C21" s="52">
+        <v>3</v>
+      </c>
+      <c r="D21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="E21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="F21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="G21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="H21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="I21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="J21" s="71">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="121"/>
+      <c r="C22" s="52">
+        <v>4</v>
+      </c>
+      <c r="D22" s="71">
+        <v>490</v>
+      </c>
+      <c r="E22" s="71">
+        <v>490</v>
+      </c>
+      <c r="F22" s="71">
+        <v>490</v>
+      </c>
+      <c r="G22" s="71">
+        <v>490</v>
+      </c>
+      <c r="H22" s="71">
+        <v>490</v>
+      </c>
+      <c r="I22" s="71">
+        <v>490</v>
+      </c>
+      <c r="J22" s="71">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="121"/>
+      <c r="C23" s="52">
+        <v>5</v>
+      </c>
+      <c r="D23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="E23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="F23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="G23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="H23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="I23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="J23" s="71">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="121"/>
+      <c r="C24" s="52">
+        <v>6</v>
+      </c>
+      <c r="D24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="E24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="F24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="G24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="H24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="I24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="J24" s="71">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="121"/>
+      <c r="C25" s="52">
+        <v>7</v>
+      </c>
+      <c r="D25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="E25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="F25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="G25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="H25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="I25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="J25" s="71">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="122"/>
+      <c r="C26" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="E26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="F26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="G26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="H26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="I26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="J26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="K26" s="61">
+        <v>103110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="121"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="121"/>
+      <c r="C30" s="52">
+        <v>1</v>
+      </c>
+      <c r="D30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="E30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="F30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="G30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="H30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="I30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="J30" s="71">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="121"/>
+      <c r="C31" s="52">
+        <v>2</v>
+      </c>
+      <c r="D31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="E31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="F31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="G31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="H31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="I31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="J31" s="71">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="121"/>
+      <c r="C32" s="52">
+        <v>3</v>
+      </c>
+      <c r="D32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="E32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="F32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="G32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="H32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="I32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="J32" s="71">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="121"/>
+      <c r="C33" s="52">
+        <v>4</v>
+      </c>
+      <c r="D33" s="71">
+        <v>420</v>
+      </c>
+      <c r="E33" s="71">
+        <v>420</v>
+      </c>
+      <c r="F33" s="71">
+        <v>420</v>
+      </c>
+      <c r="G33" s="71">
+        <v>420</v>
+      </c>
+      <c r="H33" s="71">
+        <v>420</v>
+      </c>
+      <c r="I33" s="71">
+        <v>420</v>
+      </c>
+      <c r="J33" s="71">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="121"/>
+      <c r="C34" s="52">
+        <v>5</v>
+      </c>
+      <c r="D34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="E34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="F34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="G34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="H34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="I34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="J34" s="71">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="121"/>
+      <c r="C35" s="52">
+        <v>6</v>
+      </c>
+      <c r="D35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="E35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="F35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="G35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="H35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="I35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="J35" s="71">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="121"/>
+      <c r="C36" s="52">
+        <v>7</v>
+      </c>
+      <c r="D36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="E36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="F36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="G36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="H36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="I36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="J36" s="71">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="122"/>
+      <c r="C37" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="E37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="F37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="G37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="H37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="I37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="J37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="K37" s="61">
+        <v>102620</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="124"/>
+      <c r="C41" s="71">
+        <v>1</v>
+      </c>
+      <c r="D41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="E41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="F41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="G41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="H41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="I41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="J41" s="71">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="124"/>
+      <c r="C42" s="71">
+        <v>2</v>
+      </c>
+      <c r="D42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="E42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="F42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="G42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="H42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="I42" s="71">
+        <v>2350</v>
+      </c>
+      <c r="J42" s="71">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="124"/>
+      <c r="C43" s="71">
+        <v>3</v>
+      </c>
+      <c r="D43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="E43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="F43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="G43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="H43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="I43" s="71">
+        <v>2450</v>
+      </c>
+      <c r="J43" s="71">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="124"/>
+      <c r="C44" s="71">
+        <v>4</v>
+      </c>
+      <c r="D44" s="71">
+        <v>450</v>
+      </c>
+      <c r="E44" s="71">
+        <v>450</v>
+      </c>
+      <c r="F44" s="71">
+        <v>450</v>
+      </c>
+      <c r="G44" s="71">
+        <v>450</v>
+      </c>
+      <c r="H44" s="71">
+        <v>450</v>
+      </c>
+      <c r="I44" s="71">
+        <v>450</v>
+      </c>
+      <c r="J44" s="71">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="124"/>
+      <c r="C45" s="71">
+        <v>5</v>
+      </c>
+      <c r="D45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="E45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="F45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="G45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="H45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="I45" s="71">
+        <v>2470</v>
+      </c>
+      <c r="J45" s="71">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="124"/>
+      <c r="C46" s="71">
+        <v>6</v>
+      </c>
+      <c r="D46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="F46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="G46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="H46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="I46" s="71">
+        <v>2400</v>
+      </c>
+      <c r="J46" s="71">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="124"/>
+      <c r="C47" s="71">
+        <v>7</v>
+      </c>
+      <c r="D47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="E47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="F47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="G47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="H47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="I47" s="71">
+        <v>2460</v>
+      </c>
+      <c r="J47" s="71">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="124"/>
+      <c r="C48" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="E48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="F48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="G48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="H48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="I48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="J48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="K48" s="61">
+        <v>104300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="43"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="62">
+        <v>16.114000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -6063,12 +7336,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,19 +7355,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="A1" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -6102,18 +7375,18 @@
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -6125,10 +7398,10 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="130" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -6154,8 +7427,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
@@ -6179,267 +7452,267 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="C7" s="71">
+      <c r="B7" s="129"/>
+      <c r="C7" s="72">
         <v>1</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="72">
         <f>'F619-M620'!E2</f>
-        <v>2500</v>
-      </c>
-      <c r="E7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="E7" s="72">
         <f>D7</f>
-        <v>2500</v>
-      </c>
-      <c r="F7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="F7" s="72">
         <f t="shared" ref="F7:J7" si="0">E7</f>
-        <v>2500</v>
-      </c>
-      <c r="G7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="G7" s="72">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="H7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="H7" s="72">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="I7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="I7" s="72">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="J7" s="71">
+        <v>2430</v>
+      </c>
+      <c r="J7" s="72">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="71">
+      <c r="B8" s="129"/>
+      <c r="C8" s="72">
         <v>2</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="72">
         <f>'F619-M620'!E3</f>
-        <v>2670</v>
-      </c>
-      <c r="E8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="E8" s="72">
         <f t="shared" ref="E8:J12" si="1">D8</f>
-        <v>2670</v>
-      </c>
-      <c r="F8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="F8" s="72">
         <f t="shared" si="1"/>
-        <v>2670</v>
-      </c>
-      <c r="G8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="G8" s="72">
         <f t="shared" si="1"/>
-        <v>2670</v>
-      </c>
-      <c r="H8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="H8" s="72">
         <f t="shared" si="1"/>
-        <v>2670</v>
-      </c>
-      <c r="I8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="I8" s="72">
         <f t="shared" si="1"/>
-        <v>2670</v>
-      </c>
-      <c r="J8" s="71">
+        <v>2610</v>
+      </c>
+      <c r="J8" s="72">
         <f t="shared" si="1"/>
-        <v>2670</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="C9" s="71">
+      <c r="B9" s="129"/>
+      <c r="C9" s="72">
         <v>3</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="72">
         <f>'F619-M620'!E4</f>
-        <v>680</v>
-      </c>
-      <c r="E9" s="71">
+        <v>540</v>
+      </c>
+      <c r="E9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="F9" s="71">
+        <v>540</v>
+      </c>
+      <c r="F9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="G9" s="71">
+        <v>540</v>
+      </c>
+      <c r="G9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="H9" s="71">
+        <v>540</v>
+      </c>
+      <c r="H9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="I9" s="71">
+        <v>540</v>
+      </c>
+      <c r="I9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
-      </c>
-      <c r="J9" s="71">
+        <v>540</v>
+      </c>
+      <c r="J9" s="72">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="71">
+      <c r="B10" s="129"/>
+      <c r="C10" s="72">
         <v>4</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="72">
         <f>'F619-M620'!E5</f>
-        <v>2650</v>
-      </c>
-      <c r="E10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="E10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="F10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="F10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="G10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="G10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="H10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="H10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="I10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="I10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="J10" s="71">
+        <v>2550</v>
+      </c>
+      <c r="J10" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="71">
+      <c r="B11" s="129"/>
+      <c r="C11" s="72">
         <v>5</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="72">
         <f>'F619-M620'!E6</f>
-        <v>2650</v>
-      </c>
-      <c r="E11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="E11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="F11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="F11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="G11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="G11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="H11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="H11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="I11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="I11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
-      </c>
-      <c r="J11" s="71">
+        <v>2540</v>
+      </c>
+      <c r="J11" s="72">
         <f t="shared" si="1"/>
-        <v>2650</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="C12" s="71">
-        <v>6</v>
-      </c>
-      <c r="D12" s="71">
+      <c r="B12" s="129"/>
+      <c r="C12" s="72">
+        <v>6</v>
+      </c>
+      <c r="D12" s="72">
         <f>'F619-M620'!E7</f>
-        <v>2660</v>
-      </c>
-      <c r="E12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="E12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="F12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="F12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="G12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="G12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="H12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="H12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="I12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="I12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
-      </c>
-      <c r="J12" s="71">
+        <v>2590</v>
+      </c>
+      <c r="J12" s="72">
         <f t="shared" si="1"/>
-        <v>2660</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="71" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="73">
         <f t="shared" ref="D15:J15" si="2">SUM(D7:D14)</f>
-        <v>13810</v>
-      </c>
-      <c r="E15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="E15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
-      </c>
-      <c r="F15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="F15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
-      </c>
-      <c r="G15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="G15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
-      </c>
-      <c r="H15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="H15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
-      </c>
-      <c r="I15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="I15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
-      </c>
-      <c r="J15" s="70">
+        <v>13260</v>
+      </c>
+      <c r="J15" s="73">
         <f t="shared" si="2"/>
-        <v>13810</v>
+        <v>13260</v>
       </c>
       <c r="K15" s="61">
         <f>SUM(D15:J15)</f>
-        <v>96670</v>
+        <v>92820</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6450,10 +7723,10 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="18" t="str">
@@ -6486,8 +7759,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
@@ -6511,279 +7784,279 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="52">
         <v>1</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="72">
         <f>'F619-M620'!E13</f>
-        <v>2490</v>
-      </c>
-      <c r="E19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="E19" s="72">
         <f>D19</f>
-        <v>2490</v>
-      </c>
-      <c r="F19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="F19" s="72">
         <f t="shared" ref="F19:J19" si="4">E19</f>
-        <v>2490</v>
-      </c>
-      <c r="G19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="G19" s="72">
         <f t="shared" si="4"/>
-        <v>2490</v>
-      </c>
-      <c r="H19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="H19" s="72">
         <f t="shared" si="4"/>
-        <v>2490</v>
-      </c>
-      <c r="I19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="I19" s="72">
         <f t="shared" si="4"/>
-        <v>2490</v>
-      </c>
-      <c r="J19" s="71">
+        <v>2380</v>
+      </c>
+      <c r="J19" s="72">
         <f t="shared" si="4"/>
-        <v>2490</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="72">
         <f>'F619-M620'!E14</f>
-        <v>2490</v>
-      </c>
-      <c r="E20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="E20" s="72">
         <f t="shared" ref="E20:J25" si="5">D20</f>
-        <v>2490</v>
-      </c>
-      <c r="F20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="F20" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="G20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="G20" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="H20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="H20" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="I20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="I20" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="J20" s="71">
+        <v>2410</v>
+      </c>
+      <c r="J20" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="52">
         <v>3</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="72">
         <f>'F619-M620'!E15</f>
-        <v>2470</v>
-      </c>
-      <c r="E21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="E21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="F21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="F21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="G21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="G21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="H21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="H21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="I21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="I21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="J21" s="71">
+        <v>2340</v>
+      </c>
+      <c r="J21" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="52">
         <v>4</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="72">
         <f>'F619-M620'!E16</f>
-        <v>320</v>
-      </c>
-      <c r="E22" s="71">
+        <v>490</v>
+      </c>
+      <c r="E22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="F22" s="71">
+        <v>490</v>
+      </c>
+      <c r="F22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="G22" s="71">
+        <v>490</v>
+      </c>
+      <c r="G22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="H22" s="71">
+        <v>490</v>
+      </c>
+      <c r="H22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="I22" s="71">
+        <v>490</v>
+      </c>
+      <c r="I22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="J22" s="71">
+        <v>490</v>
+      </c>
+      <c r="J22" s="72">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="52">
         <v>5</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="72">
         <f>'F619-M620'!E17</f>
-        <v>2470</v>
-      </c>
-      <c r="E23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="E23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="F23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="F23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="G23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="G23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="H23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="H23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="I23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="I23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="J23" s="71">
+        <v>2350</v>
+      </c>
+      <c r="J23" s="72">
         <f t="shared" si="5"/>
-        <v>2470</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="52">
         <v>6</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="72">
         <f>'F619-M620'!E18</f>
-        <v>2480</v>
-      </c>
-      <c r="E24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="E24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="F24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="F24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="G24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="G24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="H24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="H24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="I24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="I24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="J24" s="71">
+        <v>2370</v>
+      </c>
+      <c r="J24" s="72">
         <f t="shared" si="5"/>
-        <v>2480</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="78"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="52">
         <v>7</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="72">
         <f>'F619-M620'!E19</f>
-        <v>2490</v>
-      </c>
-      <c r="E25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="E25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="F25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="F25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="G25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="G25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="H25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="H25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="I25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="I25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="J25" s="71">
+        <v>2390</v>
+      </c>
+      <c r="J25" s="72">
         <f t="shared" si="5"/>
-        <v>2490</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="72">
         <f t="shared" ref="D26:J26" si="6">SUM(D19:D25)</f>
-        <v>15210</v>
-      </c>
-      <c r="E26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="E26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
-      </c>
-      <c r="F26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="F26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
-      </c>
-      <c r="G26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="G26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
-      </c>
-      <c r="H26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="H26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
-      </c>
-      <c r="I26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="I26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
-      </c>
-      <c r="J26" s="71">
+        <v>14730</v>
+      </c>
+      <c r="J26" s="72">
         <f t="shared" si="6"/>
-        <v>15210</v>
+        <v>14730</v>
       </c>
       <c r="K26" s="61">
         <f>SUM(D26:J26)</f>
-        <v>106470</v>
+        <v>103110</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -6798,10 +8071,10 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="18">
@@ -6834,8 +8107,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
@@ -6859,279 +8132,279 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="52">
         <v>1</v>
       </c>
-      <c r="D30" s="71">
+      <c r="D30" s="72">
         <f>'F619-M620'!E24</f>
-        <v>2390</v>
-      </c>
-      <c r="E30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="E30" s="72">
         <f>D30</f>
-        <v>2390</v>
-      </c>
-      <c r="F30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="F30" s="72">
         <f t="shared" ref="F30:J30" si="8">E30</f>
-        <v>2390</v>
-      </c>
-      <c r="G30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="G30" s="72">
         <f t="shared" si="8"/>
-        <v>2390</v>
-      </c>
-      <c r="H30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="H30" s="72">
         <f t="shared" si="8"/>
-        <v>2390</v>
-      </c>
-      <c r="I30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="I30" s="72">
         <f t="shared" si="8"/>
-        <v>2390</v>
-      </c>
-      <c r="J30" s="71">
+        <v>2310</v>
+      </c>
+      <c r="J30" s="72">
         <f t="shared" si="8"/>
-        <v>2390</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="52">
         <v>2</v>
       </c>
-      <c r="D31" s="71">
+      <c r="D31" s="72">
         <f>'F619-M620'!E25</f>
-        <v>2400</v>
-      </c>
-      <c r="E31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="E31" s="72">
         <f t="shared" ref="E31:J36" si="9">D31</f>
-        <v>2400</v>
-      </c>
-      <c r="F31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="F31" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="G31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="G31" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="H31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="H31" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="I31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="I31" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="J31" s="71">
+        <v>2350</v>
+      </c>
+      <c r="J31" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="52">
         <v>3</v>
       </c>
-      <c r="D32" s="71">
+      <c r="D32" s="72">
         <f>'F619-M620'!E26</f>
-        <v>2470</v>
-      </c>
-      <c r="E32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="E32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="F32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="F32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="G32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="G32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="H32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="H32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="I32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="I32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="J32" s="71">
+        <v>2410</v>
+      </c>
+      <c r="J32" s="72">
         <f t="shared" si="9"/>
-        <v>2470</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="52">
         <v>4</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="72">
         <f>'F619-M620'!E27</f>
-        <v>530</v>
-      </c>
-      <c r="E33" s="71">
+        <v>420</v>
+      </c>
+      <c r="E33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="F33" s="71">
+        <v>420</v>
+      </c>
+      <c r="F33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="G33" s="71">
+        <v>420</v>
+      </c>
+      <c r="G33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="H33" s="71">
+        <v>420</v>
+      </c>
+      <c r="H33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="I33" s="71">
+        <v>420</v>
+      </c>
+      <c r="I33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="J33" s="71">
+        <v>420</v>
+      </c>
+      <c r="J33" s="72">
         <f t="shared" si="9"/>
-        <v>530</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="78"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="52">
         <v>5</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="72">
         <f>'F619-M620'!E28</f>
-        <v>2500</v>
-      </c>
-      <c r="E34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="E34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="F34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="F34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="G34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="G34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="H34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="H34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="I34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="I34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="J34" s="71">
+        <v>2440</v>
+      </c>
+      <c r="J34" s="72">
         <f t="shared" si="9"/>
-        <v>2500</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="52">
         <v>6</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="72">
         <f>'F619-M620'!E29</f>
-        <v>2450</v>
-      </c>
-      <c r="E35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="E35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="F35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="F35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="G35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="G35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="H35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="H35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="I35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="I35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="J35" s="71">
+        <v>2390</v>
+      </c>
+      <c r="J35" s="72">
         <f t="shared" si="9"/>
-        <v>2450</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="52">
         <v>7</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="72">
         <f>'F619-M620'!E30</f>
-        <v>2400</v>
-      </c>
-      <c r="E36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="E36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="F36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="F36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="G36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="G36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="H36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="H36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="I36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="I36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="J36" s="71">
+        <v>2340</v>
+      </c>
+      <c r="J36" s="72">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="72">
         <f t="shared" ref="D37:J37" si="10">SUM(D30:D36)</f>
-        <v>15140</v>
-      </c>
-      <c r="E37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="E37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
-      </c>
-      <c r="F37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="F37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
-      </c>
-      <c r="G37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="G37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
-      </c>
-      <c r="H37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="H37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
-      </c>
-      <c r="I37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="I37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
-      </c>
-      <c r="J37" s="71">
+        <v>14660</v>
+      </c>
+      <c r="J37" s="72">
         <f t="shared" si="10"/>
-        <v>15140</v>
+        <v>14660</v>
       </c>
       <c r="K37" s="61">
         <f>SUM(D37:J37)</f>
-        <v>105980</v>
+        <v>102620</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -7145,10 +8418,10 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="18" t="str">
@@ -7181,8 +8454,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
@@ -7206,279 +8479,279 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
-      <c r="C41" s="71">
+      <c r="B41" s="124"/>
+      <c r="C41" s="72">
         <v>1</v>
       </c>
-      <c r="D41" s="71">
+      <c r="D41" s="72">
         <f>'F619-M620'!E35</f>
-        <v>2440</v>
-      </c>
-      <c r="E41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="E41" s="72">
         <f>D41</f>
-        <v>2440</v>
-      </c>
-      <c r="F41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="F41" s="72">
         <f t="shared" ref="F41:J41" si="12">E41</f>
-        <v>2440</v>
-      </c>
-      <c r="G41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="G41" s="72">
         <f t="shared" si="12"/>
-        <v>2440</v>
-      </c>
-      <c r="H41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="H41" s="72">
         <f t="shared" si="12"/>
-        <v>2440</v>
-      </c>
-      <c r="I41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="I41" s="72">
         <f t="shared" si="12"/>
-        <v>2440</v>
-      </c>
-      <c r="J41" s="71">
+        <v>2320</v>
+      </c>
+      <c r="J41" s="72">
         <f t="shared" si="12"/>
-        <v>2440</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
-      <c r="C42" s="71">
+      <c r="B42" s="124"/>
+      <c r="C42" s="72">
         <v>2</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="72">
         <f>'F619-M620'!E36</f>
+        <v>2350</v>
+      </c>
+      <c r="E42" s="72">
+        <f t="shared" ref="E42:J47" si="13">D42</f>
+        <v>2350</v>
+      </c>
+      <c r="F42" s="72">
+        <f t="shared" si="13"/>
+        <v>2350</v>
+      </c>
+      <c r="G42" s="72">
+        <f t="shared" si="13"/>
+        <v>2350</v>
+      </c>
+      <c r="H42" s="72">
+        <f t="shared" si="13"/>
+        <v>2350</v>
+      </c>
+      <c r="I42" s="72">
+        <f t="shared" si="13"/>
+        <v>2350</v>
+      </c>
+      <c r="J42" s="72">
+        <f t="shared" si="13"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="124"/>
+      <c r="C43" s="72">
+        <v>3</v>
+      </c>
+      <c r="D43" s="72">
+        <f>'F619-M620'!E37</f>
+        <v>2450</v>
+      </c>
+      <c r="E43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+      <c r="F43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+      <c r="G43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+      <c r="H43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+      <c r="I43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+      <c r="J43" s="72">
+        <f t="shared" si="13"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="124"/>
+      <c r="C44" s="72">
+        <v>4</v>
+      </c>
+      <c r="D44" s="72">
+        <f>'F619-M620'!E38</f>
+        <v>450</v>
+      </c>
+      <c r="E44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="F44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="G44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="H44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="I44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="J44" s="72">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="124"/>
+      <c r="C45" s="72">
+        <v>5</v>
+      </c>
+      <c r="D45" s="72">
+        <f>'F619-M620'!E39</f>
+        <v>2470</v>
+      </c>
+      <c r="E45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+      <c r="F45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+      <c r="G45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+      <c r="H45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+      <c r="I45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+      <c r="J45" s="72">
+        <f t="shared" si="13"/>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="124"/>
+      <c r="C46" s="72">
+        <v>6</v>
+      </c>
+      <c r="D46" s="72">
+        <f>'F619-M620'!E40</f>
+        <v>2400</v>
+      </c>
+      <c r="E46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+      <c r="F46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+      <c r="G46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+      <c r="H46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+      <c r="I46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+      <c r="J46" s="72">
+        <f t="shared" si="13"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="124"/>
+      <c r="C47" s="72">
+        <v>7</v>
+      </c>
+      <c r="D47" s="72">
+        <f>'F619-M620'!E41</f>
         <v>2460</v>
       </c>
-      <c r="E42" s="71">
-        <f t="shared" ref="E42:J47" si="13">D42</f>
-        <v>2460</v>
-      </c>
-      <c r="F42" s="71">
+      <c r="E47" s="72">
         <f t="shared" si="13"/>
         <v>2460</v>
       </c>
-      <c r="G42" s="71">
+      <c r="F47" s="72">
         <f t="shared" si="13"/>
         <v>2460</v>
       </c>
-      <c r="H42" s="71">
+      <c r="G47" s="72">
         <f t="shared" si="13"/>
         <v>2460</v>
       </c>
-      <c r="I42" s="71">
+      <c r="H47" s="72">
         <f t="shared" si="13"/>
         <v>2460</v>
       </c>
-      <c r="J42" s="71">
+      <c r="I47" s="72">
         <f t="shared" si="13"/>
         <v>2460</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
-      <c r="C43" s="71">
-        <v>3</v>
-      </c>
-      <c r="D43" s="71">
-        <f>'F619-M620'!E37</f>
-        <v>2530</v>
-      </c>
-      <c r="E43" s="71">
+      <c r="J47" s="72">
         <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-      <c r="F43" s="71">
-        <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-      <c r="G43" s="71">
-        <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-      <c r="H43" s="71">
-        <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-      <c r="I43" s="71">
-        <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-      <c r="J43" s="71">
-        <f t="shared" si="13"/>
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
-      <c r="C44" s="71">
-        <v>4</v>
-      </c>
-      <c r="D44" s="71">
-        <f>'F619-M620'!E38</f>
-        <v>340</v>
-      </c>
-      <c r="E44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-      <c r="F44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-      <c r="G44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-      <c r="H44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-      <c r="I44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-      <c r="J44" s="71">
-        <f t="shared" si="13"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
-      <c r="C45" s="71">
-        <v>5</v>
-      </c>
-      <c r="D45" s="71">
-        <f>'F619-M620'!E39</f>
-        <v>2540</v>
-      </c>
-      <c r="E45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-      <c r="F45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-      <c r="G45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-      <c r="H45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-      <c r="I45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-      <c r="J45" s="71">
-        <f t="shared" si="13"/>
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
-      <c r="C46" s="71">
-        <v>6</v>
-      </c>
-      <c r="D46" s="71">
-        <f>'F619-M620'!E40</f>
-        <v>2510</v>
-      </c>
-      <c r="E46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="F46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="G46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="H46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="I46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-      <c r="J46" s="71">
-        <f t="shared" si="13"/>
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
-      <c r="C47" s="71">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="124"/>
+      <c r="C48" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="71">
-        <f>'F619-M620'!E41</f>
-        <v>2500</v>
-      </c>
-      <c r="E47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="F47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="G47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="H47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="I47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="J47" s="71">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
-      <c r="C48" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="71">
+      <c r="D48" s="72">
         <f>SUM(D41:D47)</f>
-        <v>15320</v>
-      </c>
-      <c r="E48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="E48" s="72">
         <f t="shared" ref="E48:J48" si="14">SUM(E41:E47)</f>
-        <v>15320</v>
-      </c>
-      <c r="F48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="F48" s="72">
         <f t="shared" si="14"/>
-        <v>15320</v>
-      </c>
-      <c r="G48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="G48" s="72">
         <f t="shared" si="14"/>
-        <v>15320</v>
-      </c>
-      <c r="H48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="H48" s="72">
         <f t="shared" si="14"/>
-        <v>15320</v>
-      </c>
-      <c r="I48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="I48" s="72">
         <f t="shared" si="14"/>
-        <v>15320</v>
-      </c>
-      <c r="J48" s="71">
+        <v>14900</v>
+      </c>
+      <c r="J48" s="72">
         <f t="shared" si="14"/>
-        <v>15320</v>
+        <v>14900</v>
       </c>
       <c r="K48" s="61">
         <f>SUM(D48:J48)</f>
-        <v>107240</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -7493,34 +8766,34 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="62">
         <f>(K48+K37+K26+K15)/25000</f>
-        <v>16.654399999999999</v>
+        <v>16.114000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -7564,12 +8837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7584,864 +8857,858 @@
     <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="93"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="75"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="95" t="s">
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="100" t="s">
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="X2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="101" t="s">
+      <c r="Y2" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="102"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104">
+      <c r="A3" s="139"/>
+      <c r="B3" s="79">
         <v>1</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="80">
         <v>2</v>
       </c>
-      <c r="D3" s="105">
+      <c r="D3" s="80">
         <v>3</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="80">
         <v>4</v>
       </c>
-      <c r="F3" s="105">
+      <c r="F3" s="80">
         <v>5</v>
       </c>
-      <c r="G3" s="105">
-        <v>6</v>
-      </c>
-      <c r="H3" s="106">
+      <c r="G3" s="80">
+        <v>6</v>
+      </c>
+      <c r="H3" s="81">
         <v>7</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="82">
         <v>1</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="80">
         <v>2</v>
       </c>
-      <c r="K3" s="105">
+      <c r="K3" s="80">
         <v>3</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="80">
         <v>4</v>
       </c>
-      <c r="M3" s="105">
+      <c r="M3" s="80">
         <v>5</v>
       </c>
-      <c r="N3" s="105">
-        <v>6</v>
-      </c>
-      <c r="O3" s="108">
+      <c r="N3" s="80">
+        <v>6</v>
+      </c>
+      <c r="O3" s="83">
         <v>7</v>
       </c>
-      <c r="P3" s="104">
+      <c r="P3" s="79">
         <v>1</v>
       </c>
-      <c r="Q3" s="105">
+      <c r="Q3" s="80">
         <v>2</v>
       </c>
-      <c r="R3" s="105">
+      <c r="R3" s="80">
         <v>3</v>
       </c>
-      <c r="S3" s="105">
+      <c r="S3" s="80">
         <v>4</v>
       </c>
-      <c r="T3" s="105">
+      <c r="T3" s="80">
         <v>5</v>
       </c>
-      <c r="U3" s="105">
-        <v>6</v>
-      </c>
-      <c r="V3" s="108">
+      <c r="U3" s="80">
+        <v>6</v>
+      </c>
+      <c r="V3" s="83">
         <v>7</v>
       </c>
-      <c r="W3" s="109"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="111"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="87">
         <f>[1]LF!$E$371</f>
-        <v>579</v>
-      </c>
-      <c r="C4" s="113">
+        <v>555</v>
+      </c>
+      <c r="C4" s="88">
         <f>[1]LF!$Q$371</f>
-        <v>579</v>
-      </c>
-      <c r="D4" s="113">
+        <v>562</v>
+      </c>
+      <c r="D4" s="88">
         <f>[1]LF!$AC$371</f>
-        <v>576</v>
-      </c>
-      <c r="E4" s="113">
+        <v>545</v>
+      </c>
+      <c r="E4" s="88">
         <f>[1]LF!$AO$371</f>
-        <v>74</v>
-      </c>
-      <c r="F4" s="113">
+        <v>115</v>
+      </c>
+      <c r="F4" s="88">
         <f>[1]LF!$BA$371</f>
-        <v>575</v>
-      </c>
-      <c r="G4" s="113">
+        <v>546</v>
+      </c>
+      <c r="G4" s="88">
         <f>[1]LF!$BM$371</f>
-        <v>578</v>
-      </c>
-      <c r="H4" s="114">
+        <v>551</v>
+      </c>
+      <c r="H4" s="89">
         <f>[1]LF!$BY$371</f>
-        <v>579</v>
-      </c>
-      <c r="I4" s="115">
+        <v>556</v>
+      </c>
+      <c r="I4" s="90">
         <f>[1]LF!$CK$371</f>
+        <v>537</v>
+      </c>
+      <c r="J4" s="88">
+        <f>[1]LF!$CW$371</f>
+        <v>547</v>
+      </c>
+      <c r="K4" s="88">
+        <f>[1]LF!$DI$371</f>
+        <v>561</v>
+      </c>
+      <c r="L4" s="88">
+        <f>[1]LF!$DU$371</f>
+        <v>97</v>
+      </c>
+      <c r="M4" s="88">
+        <f>[1]LF!$EG$371</f>
+        <v>568</v>
+      </c>
+      <c r="N4" s="88">
+        <f>[1]LF!$ES$371</f>
         <v>556</v>
       </c>
-      <c r="J4" s="113">
-        <f>[1]LF!$CW$371</f>
+      <c r="O4" s="91">
+        <f>[1]LF!$FE$371</f>
+        <v>545</v>
+      </c>
+      <c r="P4" s="87">
+        <f>[1]LF!$FQ$371</f>
+        <v>539</v>
+      </c>
+      <c r="Q4" s="88">
+        <f>[1]LF!$GC$371</f>
+        <v>547</v>
+      </c>
+      <c r="R4" s="88">
+        <f>[1]LF!$GO$371</f>
+        <v>571</v>
+      </c>
+      <c r="S4" s="88">
+        <f>[1]LF!$HA$371</f>
+        <v>104</v>
+      </c>
+      <c r="T4" s="88">
+        <f>[1]LF!$HM$371</f>
+        <v>574</v>
+      </c>
+      <c r="U4" s="88">
+        <f>[1]LF!$HY$371</f>
         <v>559</v>
       </c>
-      <c r="K4" s="113">
-        <f>[1]LF!$DI$371</f>
-        <v>575</v>
-      </c>
-      <c r="L4" s="113">
-        <f>[1]LF!$DU$371</f>
-        <v>123</v>
-      </c>
-      <c r="M4" s="113">
-        <f>[1]LF!$EG$371</f>
-        <v>583</v>
-      </c>
-      <c r="N4" s="113">
-        <f>[1]LF!$ES$371</f>
-        <v>570</v>
-      </c>
-      <c r="O4" s="116">
-        <f>[1]LF!$FE$371</f>
-        <v>559</v>
-      </c>
-      <c r="P4" s="112">
-        <f>[1]LF!$FQ$371</f>
-        <v>567</v>
-      </c>
-      <c r="Q4" s="113">
-        <f>[1]LF!$GC$371</f>
-        <v>573</v>
-      </c>
-      <c r="R4" s="113">
-        <f>[1]LF!$GO$371</f>
-        <v>588</v>
-      </c>
-      <c r="S4" s="113">
-        <f>[1]LF!$HA$371</f>
-        <v>79</v>
-      </c>
-      <c r="T4" s="113">
-        <f>[1]LF!$HM$371</f>
-        <v>591</v>
-      </c>
-      <c r="U4" s="113">
-        <f>[1]LF!$HY$371</f>
-        <v>585</v>
-      </c>
-      <c r="V4" s="116">
+      <c r="V4" s="91">
         <f>[1]LF!$IK$371</f>
-        <v>583</v>
-      </c>
-      <c r="W4" s="117">
+        <v>572</v>
+      </c>
+      <c r="W4" s="92">
         <f>SUM(B4:V4)</f>
-        <v>10631</v>
-      </c>
-      <c r="X4" s="118">
+        <v>10307</v>
+      </c>
+      <c r="X4" s="93">
         <f>[1]LF!$JI$371</f>
-        <v>10631</v>
-      </c>
-      <c r="Y4" s="118">
+        <v>10307</v>
+      </c>
+      <c r="Y4" s="93">
         <f>W4-X4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="118">
+      <c r="Z4" s="93">
         <v>10660</v>
       </c>
-      <c r="AA4" s="119">
+      <c r="AA4" s="94">
         <f>W4-Z4</f>
-        <v>-29</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121">
+      <c r="A5" s="132"/>
+      <c r="B5" s="155">
         <f>B4+C4+D4+E4+F4+G4+H4</f>
-        <v>3540</v>
-      </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124">
+        <v>3430</v>
+      </c>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158">
         <f>I4+J4+K4+L4+M4+N4+O4</f>
-        <v>3525</v>
-      </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="121">
+        <v>3411</v>
+      </c>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="155">
         <f>P4+Q4+R4+S4+T4+U4+V4</f>
-        <v>3566</v>
-      </c>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="128"/>
+        <v>3466</v>
+      </c>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="97"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="98">
         <f>[1]LF!$F$371</f>
-        <v>49</v>
-      </c>
-      <c r="C6" s="130">
+        <v>39</v>
+      </c>
+      <c r="C6" s="99">
         <f>[1]LF!$R$371</f>
-        <v>50</v>
-      </c>
-      <c r="D6" s="130">
+        <v>38</v>
+      </c>
+      <c r="D6" s="99">
         <f>[1]LF!$AD$371</f>
-        <v>50</v>
-      </c>
-      <c r="E6" s="130">
+        <v>38</v>
+      </c>
+      <c r="E6" s="99">
         <f>[1]LF!$AP$371</f>
         <v>8</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="99">
         <f>[1]LF!$BB$371</f>
-        <v>50</v>
-      </c>
-      <c r="G6" s="130">
+        <v>38</v>
+      </c>
+      <c r="G6" s="99">
         <f>[1]LF!$BN$371</f>
-        <v>49</v>
-      </c>
-      <c r="H6" s="131">
+        <v>38</v>
+      </c>
+      <c r="H6" s="100">
         <f>[1]LF!$BZ$371</f>
-        <v>49</v>
-      </c>
-      <c r="I6" s="132">
+        <v>38</v>
+      </c>
+      <c r="I6" s="101">
         <f>[1]LF!$CL$371</f>
-        <v>43</v>
-      </c>
-      <c r="J6" s="130">
+        <v>38</v>
+      </c>
+      <c r="J6" s="99">
         <f>[1]LF!$CX$371</f>
-        <v>44</v>
-      </c>
-      <c r="K6" s="130">
+        <v>38</v>
+      </c>
+      <c r="K6" s="99">
         <f>[1]LF!$DJ$371</f>
-        <v>45</v>
-      </c>
-      <c r="L6" s="130">
+        <v>39</v>
+      </c>
+      <c r="L6" s="99">
         <f>[1]LF!$DV$371</f>
-        <v>11</v>
-      </c>
-      <c r="M6" s="130">
+        <v>8</v>
+      </c>
+      <c r="M6" s="99">
         <f>[1]LF!$EH$371</f>
-        <v>45</v>
-      </c>
-      <c r="N6" s="130">
+        <v>40</v>
+      </c>
+      <c r="N6" s="99">
         <f>[1]LF!$ET$371</f>
-        <v>44</v>
-      </c>
-      <c r="O6" s="133">
+        <v>39</v>
+      </c>
+      <c r="O6" s="102">
         <f>[1]LF!$FF$371</f>
-        <v>44</v>
-      </c>
-      <c r="P6" s="129">
+        <v>38</v>
+      </c>
+      <c r="P6" s="98">
         <f>[1]LF!$FR$371</f>
-        <v>48</v>
-      </c>
-      <c r="Q6" s="130">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="99">
         <f>[1]LF!$GD$371</f>
-        <v>48</v>
-      </c>
-      <c r="R6" s="130">
+        <v>41</v>
+      </c>
+      <c r="R6" s="99">
         <f>[1]LF!$GP$371</f>
-        <v>49</v>
-      </c>
-      <c r="S6" s="130">
+        <v>42</v>
+      </c>
+      <c r="S6" s="99">
         <f>[1]LF!$HB$371</f>
-        <v>8</v>
-      </c>
-      <c r="T6" s="130">
+        <v>7</v>
+      </c>
+      <c r="T6" s="99">
         <f>[1]LF!$HN$371</f>
-        <v>50</v>
-      </c>
-      <c r="U6" s="130">
+        <v>42</v>
+      </c>
+      <c r="U6" s="99">
         <f>[1]LF!$HZ$371</f>
-        <v>49</v>
-      </c>
-      <c r="V6" s="133">
+        <v>41</v>
+      </c>
+      <c r="V6" s="102">
         <f>[1]LF!$IL$371</f>
-        <v>48</v>
-      </c>
-      <c r="W6" s="117">
+        <v>41</v>
+      </c>
+      <c r="W6" s="92">
         <f>SUM(B6:V6)</f>
-        <v>881</v>
-      </c>
-      <c r="X6" s="134">
+        <v>731</v>
+      </c>
+      <c r="X6" s="103">
         <f>[1]LF!$JJ$371</f>
-        <v>881</v>
-      </c>
-      <c r="Y6" s="118">
+        <v>731</v>
+      </c>
+      <c r="Y6" s="93">
         <f>W6-X6</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="118">
+      <c r="Z6" s="93">
         <v>881</v>
       </c>
-      <c r="AA6" s="119">
+      <c r="AA6" s="94">
         <f>W6-Z6</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="135">
+      <c r="A7" s="132"/>
+      <c r="B7" s="140">
         <f>B6+C6+D6+E6+F6+G6+H6</f>
-        <v>305</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138">
+        <v>237</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143">
         <f>I6+J6+K6+L6+M6+N6+O6</f>
-        <v>276</v>
-      </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="135">
+        <v>240</v>
+      </c>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="140">
         <f>P6+Q6+R6+S6+T6+U6+V6</f>
-        <v>300</v>
-      </c>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="142"/>
+        <v>254</v>
+      </c>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="106"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="108">
         <f>B6/B4</f>
-        <v>8.46286701208981E-2</v>
-      </c>
-      <c r="C8" s="145">
+        <v>7.0270270270270274E-2</v>
+      </c>
+      <c r="C8" s="109">
         <f t="shared" ref="C8:W8" si="0">C6/C4</f>
-        <v>8.6355785837651119E-2</v>
-      </c>
-      <c r="D8" s="145">
+        <v>6.7615658362989328E-2</v>
+      </c>
+      <c r="D8" s="109">
         <f t="shared" si="0"/>
-        <v>8.6805555555555552E-2</v>
-      </c>
-      <c r="E8" s="145">
+        <v>6.9724770642201839E-2</v>
+      </c>
+      <c r="E8" s="109">
         <f t="shared" si="0"/>
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F8" s="145">
+        <v>6.9565217391304349E-2</v>
+      </c>
+      <c r="F8" s="109">
         <f t="shared" si="0"/>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="G8" s="145">
+        <v>6.95970695970696E-2</v>
+      </c>
+      <c r="G8" s="109">
         <f t="shared" si="0"/>
-        <v>8.4775086505190306E-2</v>
-      </c>
-      <c r="H8" s="145">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H8" s="109">
         <f t="shared" si="0"/>
-        <v>8.46286701208981E-2</v>
-      </c>
-      <c r="I8" s="145">
+        <v>6.83453237410072E-2</v>
+      </c>
+      <c r="I8" s="109">
         <f t="shared" si="0"/>
-        <v>7.7338129496402883E-2</v>
-      </c>
-      <c r="J8" s="145">
+        <v>7.0763500931098691E-2</v>
+      </c>
+      <c r="J8" s="109">
         <f t="shared" si="0"/>
-        <v>7.8711985688729877E-2</v>
-      </c>
-      <c r="K8" s="145">
+        <v>6.9469835466179158E-2</v>
+      </c>
+      <c r="K8" s="109">
         <f t="shared" si="0"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-      <c r="L8" s="145">
+        <v>6.9518716577540107E-2</v>
+      </c>
+      <c r="L8" s="109">
         <f t="shared" si="0"/>
-        <v>8.943089430894309E-2</v>
-      </c>
-      <c r="M8" s="145">
+        <v>8.247422680412371E-2</v>
+      </c>
+      <c r="M8" s="109">
         <f t="shared" si="0"/>
-        <v>7.7186963979416809E-2</v>
-      </c>
-      <c r="N8" s="145">
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="N8" s="109">
         <f t="shared" si="0"/>
-        <v>7.7192982456140355E-2</v>
-      </c>
-      <c r="O8" s="145">
+        <v>7.0143884892086325E-2</v>
+      </c>
+      <c r="O8" s="109">
         <f t="shared" si="0"/>
-        <v>7.8711985688729877E-2</v>
-      </c>
-      <c r="P8" s="145">
+        <v>6.9724770642201839E-2</v>
+      </c>
+      <c r="P8" s="109">
         <f t="shared" si="0"/>
-        <v>8.4656084656084651E-2</v>
-      </c>
-      <c r="Q8" s="145">
+        <v>7.4211502782931357E-2</v>
+      </c>
+      <c r="Q8" s="109">
         <f t="shared" si="0"/>
-        <v>8.3769633507853408E-2</v>
-      </c>
-      <c r="R8" s="145">
+        <v>7.4954296160877509E-2</v>
+      </c>
+      <c r="R8" s="109">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="S8" s="145">
+        <v>7.3555166374781086E-2</v>
+      </c>
+      <c r="S8" s="109">
         <f t="shared" si="0"/>
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="T8" s="145">
+        <v>6.7307692307692304E-2</v>
+      </c>
+      <c r="T8" s="109">
         <f t="shared" si="0"/>
-        <v>8.4602368866328256E-2</v>
-      </c>
-      <c r="U8" s="145">
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="U8" s="109">
         <f t="shared" si="0"/>
-        <v>8.3760683760683755E-2</v>
-      </c>
-      <c r="V8" s="146">
+        <v>7.3345259391771014E-2</v>
+      </c>
+      <c r="V8" s="110">
         <f t="shared" si="0"/>
-        <v>8.2332761578044603E-2</v>
-      </c>
-      <c r="W8" s="147">
+        <v>7.167832167832168E-2</v>
+      </c>
+      <c r="W8" s="111">
         <f t="shared" si="0"/>
-        <v>8.2870849402690239E-2</v>
-      </c>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="142"/>
+        <v>7.092267391093432E-2</v>
+      </c>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="106"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="142"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="104">
+      <c r="A10" s="132"/>
+      <c r="B10" s="79">
         <v>1</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="80">
         <v>2</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="80">
         <v>3</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="80">
         <v>4</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="80">
         <v>5</v>
       </c>
-      <c r="G10" s="106">
-        <v>6</v>
-      </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="142"/>
+      <c r="G10" s="81">
+        <v>6</v>
+      </c>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="106"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="87">
         <f>[1]LM!$E$371</f>
-        <v>464</v>
-      </c>
-      <c r="C11" s="113">
+        <v>450</v>
+      </c>
+      <c r="C11" s="88">
         <f>[1]LM!$Q$371</f>
-        <v>496</v>
-      </c>
-      <c r="D11" s="113">
+        <v>485</v>
+      </c>
+      <c r="D11" s="88">
         <f>[1]LM!$AC$371</f>
-        <v>126</v>
-      </c>
-      <c r="E11" s="113">
+        <v>100</v>
+      </c>
+      <c r="E11" s="88">
         <f>[1]LM!$AO$371</f>
-        <v>491</v>
-      </c>
-      <c r="F11" s="113">
+        <v>473</v>
+      </c>
+      <c r="F11" s="88">
         <f>[1]LM!$BA$371</f>
-        <v>492</v>
-      </c>
-      <c r="G11" s="114">
+        <v>471</v>
+      </c>
+      <c r="G11" s="89">
         <f>[1]LM!$BM$371</f>
-        <v>493</v>
-      </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="117">
+        <v>480</v>
+      </c>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="92">
         <f>SUM(B11:G11)</f>
-        <v>2562</v>
-      </c>
-      <c r="X11" s="134">
+        <v>2459</v>
+      </c>
+      <c r="X11" s="103">
         <f>[1]LM!$HM$371</f>
-        <v>2562</v>
-      </c>
-      <c r="Y11" s="118">
+        <v>2459</v>
+      </c>
+      <c r="Y11" s="93">
         <f>W11-X11</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="118">
+      <c r="Z11" s="93">
         <v>2574</v>
       </c>
-      <c r="AA11" s="119">
+      <c r="AA11" s="94">
         <f>W11-Z11</f>
-        <v>-12</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="153">
+      <c r="A12" s="132"/>
+      <c r="B12" s="133">
         <f>B11+C11+D11+E11+F11+G11</f>
-        <v>2562</v>
-      </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="128"/>
+        <v>2459</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="97"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="129">
+      <c r="B13" s="98">
         <f>[1]LM!$F$371</f>
-        <v>39</v>
-      </c>
-      <c r="C13" s="130">
+        <v>33</v>
+      </c>
+      <c r="C13" s="99">
         <f>[1]LM!$R$371</f>
-        <v>41</v>
-      </c>
-      <c r="D13" s="130">
+        <v>36</v>
+      </c>
+      <c r="D13" s="99">
         <f>[1]LM!$AD$371</f>
         <v>8</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="99">
         <f>[1]LM!$AP$371</f>
-        <v>42</v>
-      </c>
-      <c r="F13" s="130">
+        <v>34</v>
+      </c>
+      <c r="F13" s="99">
         <f>[1]LM!$BB$371</f>
-        <v>42</v>
-      </c>
-      <c r="G13" s="131">
+        <v>35</v>
+      </c>
+      <c r="G13" s="100">
         <f>[1]LM!$BN$371</f>
-        <v>43</v>
-      </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="117">
+        <v>35</v>
+      </c>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="92">
         <f>SUM(B13:G13)</f>
-        <v>215</v>
-      </c>
-      <c r="X13" s="134">
+        <v>181</v>
+      </c>
+      <c r="X13" s="103">
         <f>[1]LM!$HN$371</f>
-        <v>215</v>
-      </c>
-      <c r="Y13" s="118">
+        <v>181</v>
+      </c>
+      <c r="Y13" s="93">
         <f>W13-X13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="118">
+      <c r="Z13" s="93">
         <v>215</v>
       </c>
-      <c r="AA13" s="119">
+      <c r="AA13" s="94">
         <f>W13-Z13</f>
-        <v>0</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
-      <c r="B14" s="156">
+      <c r="A14" s="132"/>
+      <c r="B14" s="136">
         <f>B13+C13+D13+E13+F13+G13</f>
-        <v>215</v>
-      </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="142"/>
+        <v>181</v>
+      </c>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="106"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="108">
         <f>B13/B11</f>
-        <v>8.4051724137931036E-2</v>
-      </c>
-      <c r="C15" s="160">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="C15" s="115">
         <f t="shared" ref="C15:G15" si="1">C13/C11</f>
-        <v>8.2661290322580641E-2</v>
-      </c>
-      <c r="D15" s="160">
+        <v>7.422680412371134E-2</v>
+      </c>
+      <c r="D15" s="115">
         <f t="shared" si="1"/>
-        <v>6.3492063492063489E-2</v>
-      </c>
-      <c r="E15" s="160">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="115">
         <f t="shared" si="1"/>
-        <v>8.5539714867617106E-2</v>
-      </c>
-      <c r="F15" s="160">
+        <v>7.1881606765327691E-2</v>
+      </c>
+      <c r="F15" s="115">
         <f t="shared" si="1"/>
-        <v>8.5365853658536592E-2</v>
-      </c>
-      <c r="G15" s="161">
+        <v>7.4309978768577492E-2</v>
+      </c>
+      <c r="G15" s="116">
         <f t="shared" si="1"/>
-        <v>8.7221095334685597E-2</v>
-      </c>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="163">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="118">
         <f t="shared" ref="W15" si="2">W13/W11</f>
-        <v>8.3918813427010144E-2</v>
-      </c>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="164"/>
+        <v>7.3607157381049212E-2</v>
+      </c>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="119"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
     <mergeCell ref="A9:A10"/>
@@ -8455,6 +9722,12 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:V8">
     <cfRule type="colorScale" priority="2">
@@ -8484,13 +9757,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C35:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8515,10 +9788,10 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="130"/>
       <c r="H1" s="3">
         <f>A1*7</f>
         <v>37.740480019143341</v>
@@ -8529,10 +9802,10 @@
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="85"/>
+      <c r="L1" s="162"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
@@ -8541,15 +9814,15 @@
       </c>
       <c r="C2" s="45">
         <f>Hoja1!B11</f>
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D2" s="5">
         <f>((C2*$A$1))</f>
-        <v>2501.6546755546442</v>
+        <v>2426.1737155163578</v>
       </c>
       <c r="E2" s="45">
         <f>MROUND(D2,10)</f>
-        <v>2500</v>
+        <v>2430</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="44"/>
@@ -8558,7 +9831,7 @@
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="160" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="45">
@@ -8566,15 +9839,15 @@
       </c>
       <c r="C3" s="45">
         <f>Hoja1!C11</f>
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D9" si="0">((C3*$A$1))</f>
-        <v>2674.1825842135854</v>
+        <v>2614.8761156120745</v>
       </c>
       <c r="E3" s="48">
         <f t="shared" ref="E3:E9" si="1">MROUND(D3,10)</f>
-        <v>2670</v>
+        <v>2610</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="44"/>
@@ -8583,24 +9856,24 @@
       <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="11">
         <v>3</v>
       </c>
       <c r="C4" s="11">
         <f>Hoja1!D11</f>
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>679.32864034458009</v>
+        <v>539.14971455919056</v>
       </c>
       <c r="E4" s="48">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>540</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="7">
@@ -8608,71 +9881,71 @@
       </c>
       <c r="J4" s="7">
         <f>C4</f>
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="K4" s="5">
         <f>(D4*3)</f>
-        <v>2037.9859210337404</v>
+        <v>1617.4491436775716</v>
       </c>
       <c r="L4" s="5">
         <f>(E4*3)</f>
-        <v>2040</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="48">
         <v>4</v>
       </c>
       <c r="C5" s="48">
         <f>Hoja1!E11</f>
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>2647.2250984856259</v>
+        <v>2550.1781498649716</v>
       </c>
       <c r="E5" s="48">
         <f t="shared" si="1"/>
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="80"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="7">
         <v>2</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" ref="J5" si="2">C7</f>
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ref="K5" si="3">(D7*3)</f>
-        <v>7974.0242783304284</v>
+        <v>7763.7558896523451</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ref="L5" si="4">(E7*3)</f>
-        <v>7980</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="48">
         <v>5</v>
       </c>
       <c r="C6" s="48">
         <f>Hoja1!F11</f>
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>2652.6165956312175</v>
+        <v>2539.3951555737876</v>
       </c>
       <c r="E6" s="48">
         <f t="shared" si="1"/>
-        <v>2650</v>
+        <v>2540</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="80"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="17">
         <v>2</v>
       </c>
@@ -8690,31 +9963,31 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <f>Hoja1!G11</f>
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>2658.0080927768095</v>
+        <v>2587.918629884115</v>
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>2660</v>
+        <v>2590</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="80"/>
+      <c r="H7" s="123"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="48">
         <v>7</v>
       </c>
@@ -8735,7 +10008,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="48">
         <v>8</v>
       </c>
@@ -8762,15 +10035,15 @@
       </c>
       <c r="C10" s="42">
         <f>SUM(C2:C9)</f>
-        <v>2562</v>
+        <v>2459</v>
       </c>
       <c r="D10" s="53">
         <f>SUM(D2:D9)</f>
-        <v>13813.015687006464</v>
+        <v>13257.691481010497</v>
       </c>
       <c r="E10" s="42">
         <f>SUM(E2:E9)</f>
-        <v>13810</v>
+        <v>13260</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -8801,7 +10074,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="163" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -8810,11 +10083,11 @@
       <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="H12" s="80" t="s">
+      <c r="E12" s="130"/>
+      <c r="H12" s="123" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="14">
@@ -8822,191 +10095,191 @@
       </c>
       <c r="J12" s="7">
         <f>C16</f>
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="K12" s="5">
         <f>(D16*3)</f>
-        <v>953.50040664611197</v>
+        <v>1481.7911724905794</v>
       </c>
       <c r="L12" s="5">
         <f>(E16*3)</f>
-        <v>960</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="45">
         <v>1</v>
       </c>
       <c r="C13" s="45">
         <f>Hoja1!B4</f>
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D13" s="5">
         <f>((C13*$A$11))</f>
-        <v>2486.832141658103</v>
+        <v>2383.7510166152797</v>
       </c>
       <c r="E13" s="45">
         <f t="shared" ref="E13:E19" si="5">MROUND(D13,10)</f>
-        <v>2490</v>
-      </c>
-      <c r="H13" s="80"/>
+        <v>2380</v>
+      </c>
+      <c r="H13" s="123"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="45">
         <v>2</v>
       </c>
       <c r="C14" s="45">
         <f>Hoja1!C4</f>
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" ref="D14:D20" si="6">((C14*$A$11))</f>
-        <v>2486.832141658103</v>
+        <v>2413.81634475277</v>
       </c>
       <c r="E14" s="48">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="H14" s="80"/>
+        <v>2410</v>
+      </c>
+      <c r="H14" s="123"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="45">
         <v>3</v>
       </c>
       <c r="C15" s="45">
         <f>Hoja1!D4</f>
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="6"/>
-        <v>2473.94700102775</v>
+        <v>2340.800547847437</v>
       </c>
       <c r="E15" s="48">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="H15" s="80"/>
+        <v>2340</v>
+      </c>
+      <c r="H15" s="123"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="11">
         <v>4</v>
       </c>
       <c r="C16" s="14">
         <f>Hoja1!E4</f>
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="6"/>
-        <v>317.83346888203732</v>
+        <v>493.93039083019312</v>
       </c>
       <c r="E16" s="48">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="H16" s="80"/>
+        <v>490</v>
+      </c>
+      <c r="H16" s="123"/>
       <c r="I16" s="14">
         <v>5</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" ref="J16" si="7">C19</f>
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ref="K16:L16" si="8">(D19*3)</f>
-        <v>7460.4964249743089</v>
+        <v>7164.1381904761929</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>7470</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="48">
         <v>5</v>
       </c>
       <c r="C17" s="48">
         <f>Hoja1!F4</f>
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="6"/>
-        <v>2469.6519541509656</v>
+        <v>2345.0955947242214</v>
       </c>
       <c r="E17" s="48">
         <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="H17" s="80"/>
+        <v>2350</v>
+      </c>
+      <c r="H17" s="123"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="55">
         <v>6</v>
       </c>
       <c r="C18" s="55">
         <f>Hoja1!G4</f>
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="6"/>
-        <v>2482.5370947813185</v>
+        <v>2366.5708291081428</v>
       </c>
       <c r="E18" s="55">
         <f t="shared" si="5"/>
-        <v>2480</v>
-      </c>
-      <c r="H18" s="80"/>
+        <v>2370</v>
+      </c>
+      <c r="H18" s="123"/>
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="55">
         <v>7</v>
       </c>
       <c r="C19" s="14">
         <f>Hoja1!H4</f>
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="6"/>
-        <v>2486.832141658103</v>
+        <v>2388.0460634920641</v>
       </c>
       <c r="E19" s="55">
         <f t="shared" si="5"/>
-        <v>2490</v>
-      </c>
-      <c r="H19" s="80"/>
+        <v>2390</v>
+      </c>
+      <c r="H19" s="123"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="55">
         <v>8</v>
       </c>
@@ -9031,15 +10304,15 @@
       </c>
       <c r="C21" s="42">
         <f>SUM(C13:C20)</f>
-        <v>3540</v>
+        <v>3430</v>
       </c>
       <c r="D21" s="53">
         <f>SUM(D13:D20)</f>
-        <v>15204.46594381638</v>
+        <v>14732.010787370109</v>
       </c>
       <c r="E21" s="54">
         <f>SUM(E13:E20)</f>
-        <v>15210</v>
+        <v>14730</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -9070,7 +10343,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="163" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="63" t="s">
@@ -9079,11 +10352,11 @@
       <c r="C23" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="H23" s="80" t="s">
+      <c r="E23" s="130"/>
+      <c r="H23" s="123" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="63">
@@ -9091,191 +10364,191 @@
       </c>
       <c r="J23" s="63">
         <f>C27</f>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K23" s="5">
         <f>(D27*3)</f>
-        <v>1584.8722975334022</v>
+        <v>1249.8586411442279</v>
       </c>
       <c r="L23" s="5">
         <f>(E27*3)</f>
-        <v>1590</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="63">
         <v>1</v>
       </c>
       <c r="C24" s="63">
         <f>Hoja1!I4</f>
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="D24" s="5">
         <f>((C24*$A$11))</f>
-        <v>2388.0460634920641</v>
+        <v>2306.4401728331627</v>
       </c>
       <c r="E24" s="63">
         <f t="shared" ref="E24:E30" si="9">MROUND(D24,10)</f>
-        <v>2390</v>
-      </c>
-      <c r="H24" s="80"/>
+        <v>2310</v>
+      </c>
+      <c r="H24" s="123"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="63">
         <v>2</v>
       </c>
       <c r="C25" s="63">
         <f>Hoja1!J4</f>
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ref="D25:D31" si="10">((C25*$A$11))</f>
-        <v>2400.9312041224171</v>
+        <v>2349.3906416010054</v>
       </c>
       <c r="E25" s="63">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="H25" s="80"/>
+        <v>2350</v>
+      </c>
+      <c r="H25" s="123"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="63">
         <v>3</v>
       </c>
       <c r="C26" s="63">
         <f>Hoja1!K4</f>
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="10"/>
-        <v>2469.6519541509656</v>
+        <v>2409.5212978759855</v>
       </c>
       <c r="E26" s="63">
         <f t="shared" si="9"/>
-        <v>2470</v>
-      </c>
-      <c r="H26" s="80"/>
+        <v>2410</v>
+      </c>
+      <c r="H26" s="123"/>
       <c r="I26" s="63"/>
       <c r="J26" s="63"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="63">
         <v>4</v>
       </c>
       <c r="C27" s="63">
         <f>Hoja1!L4</f>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="10"/>
-        <v>528.29076584446739</v>
+        <v>416.61954704807596</v>
       </c>
       <c r="E27" s="63">
         <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="H27" s="80"/>
+        <v>420</v>
+      </c>
+      <c r="H27" s="123"/>
       <c r="I27" s="63">
         <v>5</v>
       </c>
       <c r="J27" s="63">
         <f t="shared" ref="J27" si="11">C30</f>
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" ref="K27" si="12">(D30*3)</f>
-        <v>7202.7936123672516</v>
+        <v>7022.4016435423109</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" ref="L27" si="13">(E30*3)</f>
-        <v>7200</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="63">
         <v>5</v>
       </c>
       <c r="C28" s="63">
         <f>Hoja1!M4</f>
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="10"/>
-        <v>2504.0123291652399</v>
+        <v>2439.5866260134758</v>
       </c>
       <c r="E28" s="63">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="H28" s="80"/>
+        <v>2440</v>
+      </c>
+      <c r="H28" s="123"/>
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="63">
         <v>6</v>
       </c>
       <c r="C29" s="63">
         <f>Hoja1!N4</f>
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="10"/>
-        <v>2448.1767197670442</v>
+        <v>2388.0460634920641</v>
       </c>
       <c r="E29" s="63">
         <f t="shared" si="9"/>
-        <v>2450</v>
-      </c>
-      <c r="H29" s="80"/>
+        <v>2390</v>
+      </c>
+      <c r="H29" s="123"/>
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="63">
         <v>7</v>
       </c>
       <c r="C30" s="63">
         <f>Hoja1!O4</f>
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="10"/>
-        <v>2400.9312041224171</v>
+        <v>2340.800547847437</v>
       </c>
       <c r="E30" s="63">
         <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="H30" s="80"/>
+        <v>2340</v>
+      </c>
+      <c r="H30" s="123"/>
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="63">
         <v>8</v>
       </c>
@@ -9300,15 +10573,15 @@
       </c>
       <c r="C32" s="42">
         <f>SUM(C24:C31)</f>
-        <v>3525</v>
+        <v>3411</v>
       </c>
       <c r="D32" s="53">
         <f>SUM(D24:D31)</f>
-        <v>15140.040240664615</v>
+        <v>14650.404896711207</v>
       </c>
       <c r="E32" s="63">
         <f>SUM(E24:E31)</f>
-        <v>15140</v>
+        <v>14660</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -9339,7 +10612,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="123" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="57" t="s">
@@ -9348,11 +10621,11 @@
       <c r="C34" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="H34" s="80" t="s">
+      <c r="E34" s="130"/>
+      <c r="H34" s="123" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="41">
@@ -9360,69 +10633,69 @@
       </c>
       <c r="J34" s="41">
         <f t="shared" ref="J34:J36" si="14">C40</f>
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" ref="K34:K36" si="15">(D40*3)</f>
-        <v>7537.8072687564254</v>
+        <v>7202.7936123672516</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" ref="L34:L36" si="16">(E40*3)</f>
-        <v>7530</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="57">
         <v>1</v>
       </c>
       <c r="C35" s="57">
         <f>Hoja1!P4</f>
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="D35" s="5">
         <f>((C35*$A$33))</f>
-        <v>2435.2915791366913</v>
+        <v>2315.0302665867312</v>
       </c>
       <c r="E35" s="57">
         <f t="shared" ref="E35:E42" si="17">MROUND(D35,10)</f>
-        <v>2440</v>
-      </c>
-      <c r="H35" s="80"/>
+        <v>2320</v>
+      </c>
+      <c r="H35" s="123"/>
       <c r="I35" s="41">
         <v>11</v>
       </c>
       <c r="J35" s="41">
         <f t="shared" si="14"/>
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="15"/>
-        <v>7512.0369874957196</v>
+        <v>7370.3004405618376</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="16"/>
-        <v>7500</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="57">
         <v>2</v>
       </c>
       <c r="C36" s="57">
         <f>Hoja1!Q4</f>
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" ref="D36:D38" si="18">((C36*$A$33))</f>
-        <v>2461.0618603973971</v>
+        <v>2349.3906416010054</v>
       </c>
       <c r="E36" s="57">
         <f t="shared" si="17"/>
-        <v>2460</v>
-      </c>
-      <c r="H36" s="80"/>
+        <v>2350</v>
+      </c>
+      <c r="H36" s="123"/>
       <c r="I36" s="41">
         <v>12</v>
       </c>
@@ -9440,23 +10713,23 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="57">
         <v>3</v>
       </c>
       <c r="C37" s="57">
         <f>Hoja1!R4</f>
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="18"/>
-        <v>2525.4875635491612</v>
+        <v>2452.4717666438282</v>
       </c>
       <c r="E37" s="57">
         <f t="shared" si="17"/>
-        <v>2530</v>
-      </c>
-      <c r="H37" s="80"/>
+        <v>2450</v>
+      </c>
+      <c r="H37" s="123"/>
       <c r="I37" s="41">
         <v>13</v>
       </c>
@@ -9474,21 +10747,21 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="57">
         <v>4</v>
       </c>
       <c r="C38" s="57">
         <f>Hoja1!S4</f>
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="18"/>
-        <v>339.30870326595874</v>
+        <v>446.68487518556594</v>
       </c>
       <c r="E38" s="57">
         <f t="shared" si="17"/>
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -9506,21 +10779,21 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="57">
         <v>5</v>
       </c>
       <c r="C39" s="57">
         <f>Hoja1!T4</f>
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:D40" si="19">((C39*$A$33))</f>
-        <v>2538.3727041795141</v>
+        <v>2465.3569072741811</v>
       </c>
       <c r="E39" s="57">
         <f t="shared" ref="E39:E40" si="20">MROUND(D39,10)</f>
-        <v>2540</v>
+        <v>2470</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -9529,43 +10802,43 @@
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="57">
         <v>6</v>
       </c>
       <c r="C40" s="57">
         <f>Hoja1!U4</f>
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="19"/>
-        <v>2512.6024229188083</v>
+        <v>2400.9312041224171</v>
       </c>
       <c r="E40" s="57">
         <f t="shared" si="20"/>
-        <v>2510</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="57">
         <v>7</v>
       </c>
       <c r="C41" s="57">
         <f>Hoja1!V4</f>
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D41" s="5">
         <f>((C41*$A$33))</f>
-        <v>2504.0123291652399</v>
+        <v>2456.7668135206127</v>
       </c>
       <c r="E41" s="57">
         <f t="shared" si="17"/>
-        <v>2500</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="57">
         <v>8</v>
       </c>
@@ -9580,21 +10853,21 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="57" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="57">
         <f>SUM(C35:C42)</f>
-        <v>3566</v>
+        <v>3466</v>
       </c>
       <c r="D43" s="5">
         <f>SUM(D35:D42)</f>
-        <v>15316.137162612769</v>
+        <v>14886.63247493434</v>
       </c>
       <c r="E43" s="57">
         <f>SUM(E35:E42)</f>
-        <v>15320</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -9625,7 +10898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:F11"/>
@@ -9645,12 +10918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -9792,13 +11065,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9812,12 +11085,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/CALCIO F619 M620.xlsx
+++ b/09 Registros de Producción/programacion semanal de alimento/2023/Modulo 3 Lote M620-F619/CALCIO F619 M620.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aviagen\Produccion\09 Registros de Producción\programacion semanal de alimento\2023\Modulo 3 Lote M620-F619\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgarcia\Documents\Aviagen\Aviagen - copia\Alabama\Programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E5912-9F75-4126-8407-491EA4FCBD5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="638" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7425" tabRatio="638" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="54" r:id="rId1"/>
@@ -34,20 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'56'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'60'!$A$1:$K$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -252,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1615,10 +1603,10 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 21" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 21" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="2"/>
+    <cellStyle name="Porcentaje 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Título" xfId="5" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1923,6 +1911,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1958,6 +1963,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2133,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -3410,12 +3432,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,8 +3569,8 @@
         <v>24</v>
       </c>
       <c r="B10" s="27">
-        <f>(B9/B8)+2</f>
-        <v>5.3914971455919058</v>
+        <f>(B9/B8)+1</f>
+        <v>4.3914971455919058</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="29" t="s">
@@ -3577,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -4854,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6077,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7300,7 +7322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8523,11 +8545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCA2D7E-F51A-4820-BCC3-2469CD384213}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,31 +8666,31 @@
       </c>
       <c r="D7" s="7">
         <f>'F619-M620'!E2</f>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="E7" s="7">
         <f>D7</f>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" ref="F7:J7" si="0">E7</f>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>2420</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8678,31 +8700,31 @@
       </c>
       <c r="D8" s="7">
         <f>'F619-M620'!E3</f>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:J12" si="1">D8</f>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="1"/>
-        <v>2590</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8712,31 +8734,31 @@
       </c>
       <c r="D9" s="7">
         <f>'F619-M620'!E4</f>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8746,31 +8768,31 @@
       </c>
       <c r="D10" s="7">
         <f>'F619-M620'!E5</f>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8780,31 +8802,31 @@
       </c>
       <c r="D11" s="7">
         <f>'F619-M620'!E6</f>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8814,31 +8836,31 @@
       </c>
       <c r="D12" s="7">
         <f>'F619-M620'!E7</f>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8870,35 +8892,35 @@
       </c>
       <c r="D15" s="43">
         <f t="shared" ref="D15:J15" si="2">SUM(D7:D14)</f>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="E15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="F15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="G15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="H15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="I15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="J15" s="43">
         <f t="shared" si="2"/>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="K15" s="44">
         <f>SUM(D15:J15)</f>
-        <v>92260</v>
+        <v>75180</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8975,31 +8997,31 @@
       </c>
       <c r="D19" s="7">
         <f>'F619-M620'!E13</f>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="E19" s="7">
         <f>D19</f>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" ref="F19:J19" si="4">E19</f>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="4"/>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
-        <v>2380</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -9009,31 +9031,31 @@
       </c>
       <c r="D20" s="7">
         <f>'F619-M620'!E14</f>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ref="E20:J25" si="5">D20</f>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -9043,31 +9065,31 @@
       </c>
       <c r="D21" s="7">
         <f>'F619-M620'!E15</f>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -9077,31 +9099,31 @@
       </c>
       <c r="D22" s="7">
         <f>'F619-M620'!E16</f>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -9111,31 +9133,31 @@
       </c>
       <c r="D23" s="7">
         <f>'F619-M620'!E17</f>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -9145,31 +9167,31 @@
       </c>
       <c r="D24" s="7">
         <f>'F619-M620'!E18</f>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -9179,31 +9201,31 @@
       </c>
       <c r="D25" s="7">
         <f>'F619-M620'!E19</f>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -9213,35 +9235,35 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" ref="D26:J26" si="6">SUM(D19:D25)</f>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="6"/>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="K26" s="44">
         <f>SUM(D26:J26)</f>
-        <v>102480</v>
+        <v>78680</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -9315,31 +9337,31 @@
       </c>
       <c r="D30" s="7">
         <f>'F619-M620'!E24</f>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="E30" s="7">
         <f>D30</f>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" ref="F30:J30" si="8">E30</f>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="8"/>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="8"/>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="8"/>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="8"/>
-        <v>2290</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -9349,31 +9371,31 @@
       </c>
       <c r="D31" s="7">
         <f>'F619-M620'!E25</f>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" ref="E31:J36" si="9">D31</f>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -9383,31 +9405,31 @@
       </c>
       <c r="D32" s="7">
         <f>'F619-M620'!E26</f>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -9417,31 +9439,31 @@
       </c>
       <c r="D33" s="7">
         <f>'F619-M620'!E27</f>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -9451,31 +9473,31 @@
       </c>
       <c r="D34" s="7">
         <f>'F619-M620'!E28</f>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -9485,31 +9507,31 @@
       </c>
       <c r="D35" s="7">
         <f>'F619-M620'!E29</f>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -9519,31 +9541,31 @@
       </c>
       <c r="D36" s="7">
         <f>'F619-M620'!E30</f>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -9553,35 +9575,35 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" ref="D37:J37" si="10">SUM(D30:D36)</f>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="10"/>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="K37" s="44">
         <f>SUM(D37:J37)</f>
-        <v>101850</v>
+        <v>78120</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -9652,31 +9674,31 @@
       </c>
       <c r="D41" s="7">
         <f>'F619-M620'!E35</f>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="E41" s="7">
         <f>D41</f>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" ref="F41:J41" si="12">E41</f>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="12"/>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="12"/>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="12"/>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="12"/>
-        <v>2310</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -9686,31 +9708,31 @@
       </c>
       <c r="D42" s="7">
         <f>'F619-M620'!E36</f>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" ref="E42:J47" si="13">D42</f>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="13"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="13"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="13"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="13"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="13"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -9720,31 +9742,31 @@
       </c>
       <c r="D43" s="7">
         <f>'F619-M620'!E37</f>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="13"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -9754,31 +9776,31 @@
       </c>
       <c r="D44" s="7">
         <f>'F619-M620'!E38</f>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -9788,31 +9810,31 @@
       </c>
       <c r="D45" s="7">
         <f>'F619-M620'!E39</f>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -9822,31 +9844,31 @@
       </c>
       <c r="D46" s="7">
         <f>'F619-M620'!E40</f>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="13"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -9856,31 +9878,31 @@
       </c>
       <c r="D47" s="7">
         <f>'F619-M620'!E41</f>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="13"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -9890,35 +9912,35 @@
       </c>
       <c r="D48" s="7">
         <f>SUM(D41:D47)</f>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" ref="E48:J48" si="14">SUM(E41:E47)</f>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="14"/>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="14"/>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="14"/>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="14"/>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="14"/>
-        <v>14790</v>
+        <v>11340</v>
       </c>
       <c r="K48" s="44">
         <f>SUM(D48:J48)</f>
-        <v>103530</v>
+        <v>79380</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -9952,7 +9974,7 @@
       <c r="J51" s="97"/>
       <c r="K51" s="45">
         <f>(K48+K37+K26+K15)/25000</f>
-        <v>16.004799999999999</v>
+        <v>12.4544</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -9989,7 +10011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10909,12 +10931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10931,7 +10953,7 @@
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27">
         <f>'M-FORM'!B10</f>
-        <v>5.3914971455919058</v>
+        <v>4.3914971455919058</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -10945,7 +10967,7 @@
       <c r="E1" s="102"/>
       <c r="H1" s="3">
         <f>A1*7</f>
-        <v>37.740480019143341</v>
+        <v>30.740480019143341</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
@@ -10969,11 +10991,11 @@
       </c>
       <c r="D2" s="5">
         <f>((C2*$A$1))</f>
-        <v>2420.7822183707658</v>
+        <v>1971.7822183707658</v>
       </c>
       <c r="E2" s="7">
         <f>MROUND(D2,10)</f>
-        <v>2420</v>
+        <v>1970</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -10994,11 +11016,11 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D9" si="0">((C3*$A$1))</f>
-        <v>2593.3101270297066</v>
+        <v>2112.3101270297066</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E9" si="1">MROUND(D3,10)</f>
-        <v>2590</v>
+        <v>2110</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
@@ -11017,11 +11039,11 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>539.14971455919056</v>
+        <v>439.14971455919056</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="95" t="s">
@@ -11036,11 +11058,11 @@
       </c>
       <c r="K4" s="5">
         <f>(D4*3)</f>
-        <v>1617.4491436775716</v>
+        <v>1317.4491436775716</v>
       </c>
       <c r="L4" s="5">
         <f>(E4*3)</f>
-        <v>1620</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11054,11 +11076,11 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>2523.2206641370121</v>
+        <v>2055.2206641370121</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2060</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="95"/>
@@ -11071,11 +11093,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" ref="K5" si="3">(D7*3)</f>
-        <v>7731.4069067787932</v>
+        <v>6297.4069067787932</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ref="L5" si="4">(E7*3)</f>
-        <v>7740</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11089,11 +11111,11 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>2528.6121612826037</v>
+        <v>2059.6121612826037</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>2060</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="95"/>
@@ -11124,11 +11146,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>2577.1356355929311</v>
+        <v>2099.1356355929311</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>2580</v>
+        <v>2100</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="95"/>
@@ -11190,11 +11212,11 @@
       </c>
       <c r="D10" s="41">
         <f>SUM(D2:D9)</f>
-        <v>13182.21052097221</v>
+        <v>10737.21052097221</v>
       </c>
       <c r="E10" s="33">
         <f>SUM(E2:E9)</f>
-        <v>13180</v>
+        <v>10740</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11204,7 +11226,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <f>'F-FORM'!B10</f>
-        <v>4.295046876784288</v>
+        <v>3.295046876784288</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11212,7 +11234,7 @@
       <c r="E11" s="2"/>
       <c r="H11" s="3">
         <f>A11*7</f>
-        <v>30.065328137490017</v>
+        <v>23.065328137490017</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>0</v>
@@ -11250,11 +11272,11 @@
       </c>
       <c r="K12" s="5">
         <f>(D16*3)</f>
-        <v>1391.5951880781092</v>
+        <v>1067.5951880781092</v>
       </c>
       <c r="L12" s="5">
         <f>(E16*3)</f>
-        <v>1380</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11268,11 +11290,11 @@
       </c>
       <c r="D13" s="5">
         <f>((C13*$A$11))</f>
-        <v>2375.1609228617112</v>
+        <v>1822.1609228617112</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ref="E13:E19" si="5">MROUND(D13,10)</f>
-        <v>2380</v>
+        <v>1820</v>
       </c>
       <c r="H13" s="95"/>
       <c r="I13" s="7"/>
@@ -11291,11 +11313,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ref="D14:D20" si="6">((C14*$A$11))</f>
-        <v>2383.7510166152797</v>
+        <v>1828.7510166152799</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H14" s="95"/>
       <c r="I14" s="7"/>
@@ -11314,11 +11336,11 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="6"/>
-        <v>2336.5055009706525</v>
+        <v>1792.5055009706527</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="H15" s="95"/>
       <c r="I15" s="7"/>
@@ -11337,11 +11359,11 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="6"/>
-        <v>463.86506269270308</v>
+        <v>355.86506269270308</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="7">
@@ -11353,11 +11375,11 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" ref="K16:L16" si="8">(D19*3)</f>
-        <v>7138.3679092154871</v>
+        <v>5476.3679092154862</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="8"/>
-        <v>7140</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -11371,11 +11393,11 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="6"/>
-        <v>2340.800547847437</v>
+        <v>1795.800547847437</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="5"/>
-        <v>2340</v>
+        <v>1800</v>
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="7"/>
@@ -11394,11 +11416,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="6"/>
-        <v>2362.2757822313583</v>
+        <v>1812.2757822313583</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="5"/>
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="H18" s="95"/>
       <c r="I18" s="7"/>
@@ -11417,11 +11439,11 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" si="6"/>
-        <v>2379.4559697384957</v>
+        <v>1825.4559697384955</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="5"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H19" s="95"/>
       <c r="I19" s="7"/>
@@ -11459,11 +11481,11 @@
       </c>
       <c r="D21" s="41">
         <f>SUM(D13:D20)</f>
-        <v>14641.814802957637</v>
+        <v>11232.814802957639</v>
       </c>
       <c r="E21" s="7">
         <f>SUM(E13:E20)</f>
-        <v>14640</v>
+        <v>11240</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -11473,7 +11495,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f>A11</f>
-        <v>4.295046876784288</v>
+        <v>3.295046876784288</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11481,7 +11503,7 @@
       <c r="E22" s="2"/>
       <c r="H22" s="3">
         <f>A22*7</f>
-        <v>30.065328137490017</v>
+        <v>23.065328137490017</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>0</v>
@@ -11519,11 +11541,11 @@
       </c>
       <c r="K23" s="5">
         <f>(D27*3)</f>
-        <v>1146.7775161014049</v>
+        <v>879.7775161014049</v>
       </c>
       <c r="L23" s="5">
         <f>(E27*3)</f>
-        <v>1140</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -11537,11 +11559,11 @@
       </c>
       <c r="D24" s="5">
         <f>((C24*$A$11))</f>
-        <v>2289.2599853260253</v>
+        <v>1756.2599853260256</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ref="E24:E30" si="9">MROUND(D24,10)</f>
-        <v>2290</v>
+        <v>1760</v>
       </c>
       <c r="H24" s="95"/>
       <c r="I24" s="7"/>
@@ -11560,11 +11582,11 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ref="D25:D31" si="10">((C25*$A$11))</f>
-        <v>2332.2104540938685</v>
+        <v>1789.2104540938683</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="9"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="H25" s="95"/>
       <c r="I25" s="7"/>
@@ -11583,11 +11605,11 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" si="10"/>
-        <v>2396.6361572456326</v>
+        <v>1838.6361572456326</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="H26" s="95"/>
       <c r="I26" s="7"/>
@@ -11606,11 +11628,11 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="10"/>
-        <v>382.25917203380163</v>
+        <v>293.25917203380163</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="9"/>
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="H27" s="95"/>
       <c r="I27" s="7">
@@ -11622,11 +11644,11 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" ref="K27" si="12">(D30*3)</f>
-        <v>7009.516502911958</v>
+        <v>5377.516502911958</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" ref="L27" si="13">(E30*3)</f>
-        <v>7020</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -11640,11 +11662,11 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" si="10"/>
-        <v>2426.7014853831229</v>
+        <v>1861.7014853831226</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="9"/>
-        <v>2430</v>
+        <v>1860</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="7"/>
@@ -11663,11 +11685,11 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" si="10"/>
-        <v>2383.7510166152797</v>
+        <v>1828.7510166152799</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>1830</v>
       </c>
       <c r="H29" s="95"/>
       <c r="I29" s="7"/>
@@ -11686,11 +11708,11 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" si="10"/>
-        <v>2336.5055009706525</v>
+        <v>1792.5055009706527</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="9"/>
-        <v>2340</v>
+        <v>1790</v>
       </c>
       <c r="H30" s="95"/>
       <c r="I30" s="7"/>
@@ -11728,11 +11750,11 @@
       </c>
       <c r="D32" s="41">
         <f>SUM(D24:D31)</f>
-        <v>14547.323771668383</v>
+        <v>11160.323771668382</v>
       </c>
       <c r="E32" s="7">
         <f>SUM(E24:E31)</f>
-        <v>14550</v>
+        <v>11160</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -11742,7 +11764,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <f>A11</f>
-        <v>4.295046876784288</v>
+        <v>3.295046876784288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11750,7 +11772,7 @@
       <c r="E33" s="2"/>
       <c r="H33" s="3">
         <f>A33*7</f>
-        <v>30.065328137490017</v>
+        <v>23.065328137490017</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>0</v>
@@ -11788,11 +11810,11 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" ref="K34:K36" si="15">(D40*3)</f>
-        <v>7164.1381904761929</v>
+        <v>5496.1381904761929</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" ref="L34:L36" si="16">(E40*3)</f>
-        <v>7170</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -11806,11 +11828,11 @@
       </c>
       <c r="D35" s="5">
         <f>((C35*$A$33))</f>
-        <v>2306.4401728331627</v>
+        <v>1769.4401728331627</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" ref="E35:E42" si="17">MROUND(D35,10)</f>
-        <v>2310</v>
+        <v>1770</v>
       </c>
       <c r="H35" s="95"/>
       <c r="I35" s="7">
@@ -11822,11 +11844,11 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="15"/>
-        <v>7344.5301593011327</v>
+        <v>5634.5301593011327</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="16"/>
-        <v>7350</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -11840,11 +11862,11 @@
       </c>
       <c r="D36" s="5">
         <f t="shared" ref="D36:D38" si="18">((C36*$A$33))</f>
-        <v>2332.2104540938685</v>
+        <v>1789.2104540938683</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="17"/>
-        <v>2330</v>
+        <v>1790</v>
       </c>
       <c r="H36" s="95"/>
       <c r="I36" s="7">
@@ -11874,11 +11896,11 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" si="18"/>
-        <v>2443.8816728902598</v>
+        <v>1874.8816728902598</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="17"/>
-        <v>2440</v>
+        <v>1870</v>
       </c>
       <c r="H37" s="95"/>
       <c r="I37" s="7">
@@ -11908,11 +11930,11 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="18"/>
-        <v>416.61954704807596</v>
+        <v>319.61954704807596</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="17"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -11940,11 +11962,11 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:D40" si="19">((C39*$A$33))</f>
-        <v>2452.4717666438282</v>
+        <v>1881.4717666438285</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" ref="E39:E40" si="20">MROUND(D39,10)</f>
-        <v>2450</v>
+        <v>1880</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -11963,11 +11985,11 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" si="19"/>
-        <v>2388.0460634920641</v>
+        <v>1832.0460634920641</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="20"/>
-        <v>2390</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -11981,11 +12003,11 @@
       </c>
       <c r="D41" s="5">
         <f>((C41*$A$33))</f>
-        <v>2448.1767197670442</v>
+        <v>1878.1767197670442</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="17"/>
-        <v>2450</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -12014,11 +12036,11 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D35:D42)</f>
-        <v>14787.846396768302</v>
+        <v>11344.846396768302</v>
       </c>
       <c r="E43" s="7">
         <f>SUM(E35:E42)</f>
-        <v>14790</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12050,12 +12072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12187,8 +12209,8 @@
         <v>24</v>
       </c>
       <c r="B10" s="27">
-        <f>(B9/B8)+2</f>
-        <v>4.295046876784288</v>
+        <f>(B9/B8)+1</f>
+        <v>3.295046876784288</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="29" t="s">
